--- a/xlsx/dumped_1.xlsx
+++ b/xlsx/dumped_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,12 +1153,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Code clone detection in practice</t>
+          <t>Clone detection: Why, what and how?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>F. Deissenboeck; B. Hummel; E. Juergens</t>
+          <t>M. Akhin; V. Itsykson</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1168,34 +1168,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.1145/1810295.1810449</t>
+          <t>10.1109/CEE-SECR.2010.5783148</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>978-1-60558-719-6</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1558-1225</t>
-        </is>
-      </c>
+          <t>978-1-4577-0606-6</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6062267</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5783148</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Detection of Type-1 and Type-2 Code Clones Using Textual Analysis and Metrics</t>
+          <t>Code clone detection in practice</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E. Kodhai; S. Kanmani; A. Kamatchi; R. Radhika; B. V. Saranya</t>
+          <t>F. Deissenboeck; B. Hummel; E. Juergens</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1205,30 +1201,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.1109/ITC.2010.55</t>
+          <t>10.1145/1810295.1810449</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>978-1-4244-5957-5</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>978-1-60558-719-6</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1558-1225</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5460547</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6062267</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Highly Configurable and Extensible Code Clone Detection</t>
+          <t>Detection of Type-1 and Type-2 Code Clones Using Textual Analysis and Metrics</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B. Biegel; S. Diehl</t>
+          <t>E. Kodhai; S. Kanmani; A. Kamatchi; R. Radhika; B. V. Saranya</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1238,34 +1238,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10.1109/WCRE.2010.34</t>
+          <t>10.1109/ITC.2010.55</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>978-1-4244-8911-4</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2375-5369</t>
-        </is>
-      </c>
+          <t>978-1-4244-5957-5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5645564</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5460547</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Index-based code clone detection: incremental, distributed, scalable</t>
+          <t>Highly Configurable and Extensible Code Clone Detection</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B. Hummel; E. Juergens; L. Heinemann; M. Conradt</t>
+          <t>B. Biegel; S. Diehl</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1275,34 +1271,34 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10.1109/ICSM.2010.5609665</t>
+          <t>10.1109/WCRE.2010.34</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>978-1-4244-8629-8</t>
+          <t>978-1-4244-8911-4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1063-6773</t>
+          <t>2375-5369</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5609665</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5645564</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Instant code clone search</t>
+          <t>Index-based code clone detection: incremental, distributed, scalable</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lee, Mu-Woong; Roh, Jong-Won; Hwang, Seung-won; Kim, Sunghun</t>
+          <t>B. Hummel; E. Juergens; L. Heinemann; M. Conradt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1312,30 +1308,34 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10.1145/1882291.1882317</t>
+          <t>10.1109/ICSM.2010.5609665</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>978-1-60558-791-2</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>978-1-4244-8629-8</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1063-6773</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/1882291.1882317</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5609665</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JCCD: A flexible and extensible API for implementing custom code clone detectors</t>
+          <t>Instant code clone search</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Biegel, Benjamin; Diehl, Stephan</t>
+          <t>Lee, Mu-Woong; Roh, Jong-Won; Hwang, Seung-won; Kim, Sunghun</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1345,63 +1345,63 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10.1145/1858996.1859029</t>
+          <t>10.1145/1882291.1882317</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>978-1-4503-0116-9</t>
+          <t>978-1-60558-791-2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/1858996.1859029</t>
+          <t>https://doi.org/10.1145/1882291.1882317</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A hierarchical method for detecting codeclone</t>
+          <t>JCCD: A flexible and extensible API for implementing custom code clone detectors</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D. G. Devi; M. Punithavalli</t>
+          <t>Biegel, Benjamin; Diehl, Stephan</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.1109/ICECTECH.2011.5941574</t>
+          <t>10.1145/1858996.1859029</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>978-1-4244-8679-3</t>
+          <t>978-1-4503-0116-9</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5941574</t>
+          <t>https://doi.org/10.1145/1858996.1859029</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>An enhanced generic pipeline model for code clone detection</t>
+          <t>A hierarchical method for detecting codeclone</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A. -F. M. Ali; S. Sulaiman; S. M. Syed-Mohamad</t>
+          <t>D. G. Devi; M. Punithavalli</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1411,30 +1411,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10.1109/MySEC.2011.6140712</t>
+          <t>10.1109/ICECTECH.2011.5941574</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>978-1-4577-1531-0</t>
+          <t>978-1-4244-8679-3</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6140712</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5941574</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Applying source code analysis techniques: A case study for a large mission-critical software system</t>
+          <t>An enhanced generic pipeline model for code clone detection</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>H. Haralambiev; S. Boychev; D. Lilov; K. Kraichev</t>
+          <t>A. -F. M. Ali; S. Sulaiman; S. M. Syed-Mohamad</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1444,30 +1444,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10.1109/EUROCON.2011.5929241</t>
+          <t>10.1109/MySEC.2011.6140712</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>978-1-4244-7487-5</t>
+          <t>978-1-4577-1531-0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5929241</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6140712</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CMCD: Count Matrix Based Code Clone Detection</t>
+          <t>Applying source code analysis techniques: A case study for a large mission-critical software system</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Y. Yuan; Y. Guo</t>
+          <t>H. Haralambiev; S. Boychev; D. Lilov; K. Kraichev</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1477,34 +1477,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10.1109/APSEC.2011.13</t>
+          <t>10.1109/EUROCON.2011.5929241</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>978-1-4577-2199-1</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1530-1362</t>
-        </is>
-      </c>
+          <t>978-1-4244-7487-5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6130694</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5929241</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Code Clone Detection on Specialized PDGs with Heuristics</t>
+          <t>CMCD: Count Matrix Based Code Clone Detection</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Y. Higo; S. Kusumoto</t>
+          <t>Y. Yuan; Y. Guo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1514,34 +1510,34 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10.1109/CSMR.2011.12</t>
+          <t>10.1109/APSEC.2011.13</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>978-1-61284-259-2</t>
+          <t>978-1-4577-2199-1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1534-5351</t>
+          <t>1530-1362</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5741248</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6130694</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Code clone detection experience at microsoft</t>
+          <t>Code Clone Detection on Specialized PDGs with Heuristics</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dang, Yingnong; Ge, Song; Huang, Ray; Zhang, Dongmei</t>
+          <t>Y. Higo; S. Kusumoto</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1551,30 +1547,34 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.1145/1985404.1985417</t>
+          <t>10.1109/CSMR.2011.12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>978-1-4503-0588-4</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>978-1-61284-259-2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1534-5351</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/1985404.1985417</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=5741248</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Code clones in program test sequence identification</t>
+          <t>Code clone detection experience at microsoft</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A. Surendran; P. Samuel; K. P. Jacob</t>
+          <t>Dang, Yingnong; Ge, Song; Huang, Ray; Zhang, Dongmei</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1584,30 +1584,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10.1109/WICT.2011.6141393</t>
+          <t>10.1145/1985404.1985417</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>978-1-4673-0126-8</t>
+          <t>978-1-4503-0588-4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6141393</t>
+          <t>https://doi.org/10.1145/1985404.1985417</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>File cloning in open source Java projects: The good, the bad, and the ugly</t>
+          <t>Code clones in program test sequence identification</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>J. Ossher; H. Sajnani; C. Lopes</t>
+          <t>A. Surendran; P. Samuel; K. P. Jacob</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1617,34 +1617,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10.1109/ICSM.2011.6080795</t>
+          <t>10.1109/WICT.2011.6141393</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>978-1-4577-0664-6</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1063-6773</t>
-        </is>
-      </c>
+          <t>978-1-4673-0126-8</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6080795</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6141393</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Incremental Code Clone Detection: A PDG-based Approach</t>
+          <t>File cloning in open source Java projects: The good, the bad, and the ugly</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Y. Higo; U. Yasushi; M. Nishino; S. Kusumoto</t>
+          <t>J. Ossher; H. Sajnani; C. Lopes</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1654,34 +1650,34 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10.1109/WCRE.2011.11</t>
+          <t>10.1109/ICSM.2011.6080795</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>978-1-4577-1948-6</t>
+          <t>978-1-4577-0664-6</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2375-5369</t>
+          <t>1063-6773</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6079769</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6080795</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Internet-scale Real-time Code Clone Search Via Multi-level Indexing</t>
+          <t>Incremental Code Clone Detection: A PDG-based Approach</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>I. Keivanloo; J. Rilling; P. Charland</t>
+          <t>Y. Higo; U. Yasushi; M. Nishino; S. Kusumoto</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1691,7 +1687,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.1109/WCRE.2011.13</t>
+          <t>10.1109/WCRE.2011.11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1706,19 +1702,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6079771</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6079769</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Modeling High-Level Behavior Patterns for Precise Similarity Analysis of Software</t>
+          <t>Internet-scale Real-time Code Clone Search Via Multi-level Indexing</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>T. Kwon; Z. Su</t>
+          <t>I. Keivanloo; J. Rilling; P. Charland</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1728,34 +1724,34 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10.1109/ICDM.2011.104</t>
+          <t>10.1109/WCRE.2011.13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>978-1-4577-2075-8</t>
+          <t>978-1-4577-1948-6</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2374-8486</t>
+          <t>2375-5369</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6137327</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6079771</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>VisCad: Flexible code clone analysis support for NiCad</t>
+          <t>Modeling High-Level Behavior Patterns for Precise Similarity Analysis of Software</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Asaduzzaman, Muhammad; Roy, Chanchal K.; Schneider, Kevin A.</t>
+          <t>T. Kwon; Z. Su</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1765,55 +1761,67 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10.1145/1985404.1985425</t>
+          <t>10.1109/ICDM.2011.104</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>978-1-4503-0588-4</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>978-1-4577-2075-8</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2374-8486</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/1985404.1985425</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6137327</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A common conceptual model for clone detection results</t>
+          <t>VisCad: Flexible code clone analysis support for NiCad</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kapser, Cory J.; Harder, Jan; Baxter, Ira</t>
+          <t>Asaduzzaman, Muhammad; Roy, Chanchal K.; Schneider, Kevin A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.1145/1985404.1985425</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>978-1-4673-1795-5</t>
+          <t>978-1-4503-0588-4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/1985404.1985425</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A mapping study of software code cloning</t>
+          <t>A common conceptual model for clone detection results</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T. Shippey; D. Bowes; B. Chrisianson; T. Hall</t>
+          <t>Kapser, Cory J.; Harder, Jan; Baxter, Ira</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1821,32 +1829,24 @@
           <t>2012</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>10.1049/ic.2012.0035</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>978-1-84919-541-6</t>
+          <t>978-1-4673-1795-5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6272524</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A scalable and accurate approach based on count matrix for detecting code clones</t>
+          <t>A mapping study of software code cloning</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yuan, Yang</t>
+          <t>T. Shippey; D. Bowes; B. Chrisianson; T. Hall</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1856,30 +1856,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10.1145/2162110.2162126</t>
+          <t>10.1049/ic.2012.0035</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>978-1-4503-1222-6</t>
+          <t>978-1-84919-541-6</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2162110.2162126</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6272524</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>An efficient new multi-language clone detection approach from large source code</t>
+          <t>A scalable and accurate approach based on count matrix for detecting code clones</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S. U. Rehman; K. Khan; S. Fong; R. Biuk-Aghai</t>
+          <t>Yuan, Yang</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1889,34 +1889,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10.1109/ICSMC.2012.6377848</t>
+          <t>10.1145/2162110.2162126</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>978-1-4673-1714-6</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1062-922X</t>
-        </is>
-      </c>
+          <t>978-1-4503-1222-6</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6377848</t>
+          <t>https://doi.org/10.1145/2162110.2162126</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Boreas: An accurate and scalable token-based approach to code clone detection</t>
+          <t>An efficient new multi-language clone detection approach from large source code</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Yuan, Yang; Guo, Yao</t>
+          <t>S. U. Rehman; K. Khan; S. Fong; R. Biuk-Aghai</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1926,30 +1922,34 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10.1145/2351676.2351725</t>
+          <t>10.1109/ICSMC.2012.6377848</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>978-1-4503-1204-2</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>978-1-4673-1714-6</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1062-922X</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2351676.2351725</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6377848</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Clone detection meets Semantic Web-based transitive closure computation</t>
+          <t>Boreas: An accurate and scalable token-based approach to code clone detection</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>I. Keivanloo; J. Rilling</t>
+          <t>Yuan, Yang; Guo, Yao</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1959,30 +1959,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10.1109/RAISE.2012.6227963</t>
+          <t>10.1145/2351676.2351725</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>978-1-4673-1753-5</t>
+          <t>978-1-4503-1204-2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6227963</t>
+          <t>https://doi.org/10.1145/2351676.2351725</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Detect functionally equivalent code fragments via k-nearest neighbor algorithm</t>
+          <t>Clone detection meets Semantic Web-based transitive closure computation</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D. Kong; X. Su; S. Wu; T. Wang; P. Ma</t>
+          <t>I. Keivanloo; J. Rilling</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1992,30 +1992,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.1109/ICACI.2012.6463128</t>
+          <t>10.1109/RAISE.2012.6227963</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>978-1-4673-1744-3</t>
+          <t>978-1-4673-1753-5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6463128</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6227963</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Detecting C source code clones in college students' homework</t>
+          <t>Detect functionally equivalent code fragments via k-nearest neighbor algorithm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Jinguo He</t>
+          <t>D. Kong; X. Su; S. Wu; T. Wang; P. Ma</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2025,30 +2025,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.1109/CSIP.2012.6308805</t>
+          <t>10.1109/ICACI.2012.6463128</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>978-1-4673-1411-4</t>
+          <t>978-1-4673-1744-3</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6308805</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6463128</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Folding Repeated Instructions for Improving Token-Based Code Clone Detection</t>
+          <t>Detecting C source code clones in college students' homework</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>H. Murakami; K. Hotta; Y. Higo; H. Igaki; S. Kusumoto</t>
+          <t>Jinguo He</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2058,30 +2058,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10.1109/SCAM.2012.21</t>
+          <t>10.1109/CSIP.2012.6308805</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>978-0-7695-4783-1</t>
+          <t>978-1-4673-1411-4</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6392103</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6308805</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IDE-Based real-time focused search for near-Miss clones</t>
+          <t>Folding Repeated Instructions for Improving Token-Based Code Clone Detection</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Zibran, Minhaz F.; Roy, Chanchal K.</t>
+          <t>H. Murakami; K. Hotta; Y. Higo; H. Igaki; S. Kusumoto</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2091,30 +2091,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10.1145/2245276.2231970</t>
+          <t>10.1109/SCAM.2012.21</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>978-1-4503-0857-1</t>
+          <t>978-0-7695-4783-1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2245276.2231970</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6392103</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Models are code too: Near-miss clone detection for Simulink models</t>
+          <t>IDE-Based real-time focused search for near-Miss clones</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>M. H. Alalfi; J. R. Cordy; T. R. Dean; M. Stephan; A. Stevenson</t>
+          <t>Zibran, Minhaz F.; Roy, Chanchal K.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2124,34 +2124,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10.1109/ICSM.2012.6405285</t>
+          <t>10.1145/2245276.2231970</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>978-1-4673-2312-3</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1063-6773</t>
-        </is>
-      </c>
+          <t>978-1-4503-0857-1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6405285</t>
+          <t>https://doi.org/10.1145/2245276.2231970</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Modular Heap Abstraction-Based Code Clone Detection for Heap-Manipulating Programs</t>
+          <t>Models are code too: Near-miss clone detection for Simulink models</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>L. Dong; J. Wang; L. Chen</t>
+          <t>M. H. Alalfi; J. R. Cordy; T. R. Dean; M. Stephan; A. Stevenson</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2161,34 +2157,34 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10.1109/QSIC.2012.37</t>
+          <t>10.1109/ICSM.2012.6405285</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>978-1-4673-2857-9</t>
+          <t>978-1-4673-2312-3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2332-662X</t>
+          <t>1063-6773</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6319249</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6405285</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Near-miss model clone detection for simulink models</t>
+          <t>Modular Heap Abstraction-Based Code Clone Detection for Heap-Manipulating Programs</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Alalfi, Manar H.; Cordy, James R.; Dean, Thomas R.; Stephan, Matthew; Stevenson, Andrew</t>
+          <t>L. Dong; J. Wang; L. Chen</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2196,24 +2192,36 @@
           <t>2012</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.1109/QSIC.2012.37</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>978-1-4673-1795-5</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+          <t>978-1-4673-2857-9</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2332-662X</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6319249</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>On how often code is cloned across repositories</t>
+          <t>Near-miss model clone detection for simulink models</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>N. Schwarz; M. Lungu; R. Robbes</t>
+          <t>Alalfi, Manar H.; Cordy, James R.; Dean, Thomas R.; Stephan, Matthew; Stevenson, Andrew</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2221,36 +2229,24 @@
           <t>2012</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>10.1109/ICSE.2012.6227097</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>978-1-4673-1067-3</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1558-1225</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6227097</t>
-        </is>
-      </c>
+          <t>978-1-4673-1795-5</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Parallel code clone detection using MapReduce</t>
+          <t>On how often code is cloned across repositories</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H. Sajnani; J. Ossher; C. Lopes</t>
+          <t>N. Schwarz; M. Lungu; R. Robbes</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2260,34 +2256,34 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10.1109/ICPC.2012.6240500</t>
+          <t>10.1109/ICSE.2012.6227097</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>978-1-4673-1216-5</t>
+          <t>978-1-4673-1067-3</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1092-8138</t>
+          <t>1558-1225</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6240500</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6227097</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ReDeBug: Finding Unpatched Code Clones in Entire OS Distributions</t>
+          <t>Parallel code clone detection using MapReduce</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>J. Jang; A. Agrawal; D. Brumley</t>
+          <t>H. Sajnani; J. Ossher; C. Lopes</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2297,34 +2293,34 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.1109/SP.2012.13</t>
+          <t>10.1109/ICPC.2012.6240500</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>978-0-7695-4681-0</t>
+          <t>978-1-4673-1216-5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2375-1207</t>
+          <t>1092-8138</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6234404</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6240500</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Token-based Code Clone Detection Technique in a Student's Programming Exercise</t>
+          <t>ReDeBug: Finding Unpatched Code Clones in Entire OS Distributions</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>M. Iwamoto; S. Oshima; T. Nakashima</t>
+          <t>J. Jang; A. Agrawal; D. Brumley</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2334,30 +2330,34 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10.1109/BWCCA.2012.113</t>
+          <t>10.1109/SP.2012.13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>978-1-4673-2972-9</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>978-0-7695-4681-0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2375-1207</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6363131</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6234404</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>XIAO: Tuning code clones at hands of engineers in practice</t>
+          <t>Token-based Code Clone Detection Technique in a Student's Programming Exercise</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dang, Yingnong; Zhang, Dongmei; Ge, Song; Chu, Chengyun; Qiu, Yingjun; Xie, Tao</t>
+          <t>M. Iwamoto; S. Oshima; T. Nakashima</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2367,63 +2367,63 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10.1145/2420950.2421004</t>
+          <t>10.1109/BWCCA.2012.113</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>978-1-4503-1312-4</t>
+          <t>978-1-4673-2972-9</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2420950.2421004</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6363131</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A Token-based Illicit Copy Detection Method Using Complexity for a Program Exercise</t>
+          <t>XIAO: Tuning code clones at hands of engineers in practice</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M. Iwamoto; S. Oshima; T. Nakashima</t>
+          <t>Dang, Yingnong; Zhang, Dongmei; Ge, Song; Chu, Chengyun; Qiu, Yingjun; Xie, Tao</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10.1109/BWCCA.2013.100</t>
+          <t>10.1145/2420950.2421004</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>978-0-7695-5093-0</t>
+          <t>978-1-4503-1312-4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6690950</t>
+          <t>https://doi.org/10.1145/2420950.2421004</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A novel approach to effective detection and analysis of code clones</t>
+          <t>A Token-based Illicit Copy Detection Method Using Complexity for a Program Exercise</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>K. E. Rajakumari; T. Jebarajan</t>
+          <t>M. Iwamoto; S. Oshima; T. Nakashima</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2433,30 +2433,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10.1109/INTECH.2013.6653701</t>
+          <t>10.1109/BWCCA.2013.100</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>978-1-4799-0048-0</t>
+          <t>978-0-7695-5093-0</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6653701</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6690950</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A novel detection approach for statement clones</t>
+          <t>A novel approach to effective detection and analysis of code clones</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Qing Qing Shi; Li Ping Zhang; Fan Jun Meng; Dong Sheng Liu</t>
+          <t>K. E. Rajakumari; T. Jebarajan</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2466,34 +2466,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10.1109/ICSESS.2013.6615249</t>
+          <t>10.1109/INTECH.2013.6653701</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>978-1-4673-5000-6</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2327-0594</t>
-        </is>
-      </c>
+          <t>978-1-4799-0048-0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6615249</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6653701</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Agec: An execution-semantic clone detection tool</t>
+          <t>A novel detection approach for statement clones</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T. Kamiya</t>
+          <t>Qing Qing Shi; Li Ping Zhang; Fan Jun Meng; Dong Sheng Liu</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2503,34 +2499,34 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.1109/ICPC.2013.6613854</t>
+          <t>10.1109/ICSESS.2013.6615249</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>978-1-4673-3092-3</t>
+          <t>978-1-4673-5000-6</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1092-8138</t>
+          <t>2327-0594</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6613854</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6615249</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>An approach to clone detection in behavioural models</t>
+          <t>Agec: An execution-semantic clone detection tool</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>E. P. Antony; M. H. Alalfi; J. R. Cordy</t>
+          <t>T. Kamiya</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2540,34 +2536,34 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10.1109/WCRE.2013.6671325</t>
+          <t>10.1109/ICPC.2013.6613854</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>978-1-4799-2931-3</t>
+          <t>978-1-4673-3092-3</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2375-5369</t>
+          <t>1092-8138</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6671325</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6613854</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>An efficient code clone detection model on Java byte code using hybrid approach</t>
+          <t>An approach to clone detection in behavioural models</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>K. Raheja; R. K. Tekchandani</t>
+          <t>E. P. Antony; M. H. Alalfi; J. R. Cordy</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2577,30 +2573,34 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10.1049/cp.2013.2287</t>
+          <t>10.1109/WCRE.2013.6671325</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>978-1-84919-846-2</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>978-1-4799-2931-3</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2375-5369</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6832302</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6671325</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CCCD: Concolic code clone detection</t>
+          <t>An efficient code clone detection model on Java byte code using hybrid approach</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D. E. Krutz; E. Shihab</t>
+          <t>K. Raheja; R. K. Tekchandani</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2610,34 +2610,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10.1109/WCRE.2013.6671332</t>
+          <t>10.1049/cp.2013.2287</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>978-1-4799-2931-3</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2375-5369</t>
-        </is>
-      </c>
+          <t>978-1-84919-846-2</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6671332</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6832302</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gapped code clone detection with lightweight source code analysis</t>
+          <t>CCCD: Concolic code clone detection</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H. Murakami; K. Hotta; Y. Higo; H. Igaki; S. Kusumoto</t>
+          <t>D. E. Krutz; E. Shihab</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2647,34 +2643,34 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.1109/ICPC.2013.6613837</t>
+          <t>10.1109/WCRE.2013.6671332</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>978-1-4673-3092-3</t>
+          <t>978-1-4799-2931-3</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1092-8138</t>
+          <t>2375-5369</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6613837</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6671332</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Semantic code clone detection using parse trees and grammar recovery</t>
+          <t>Gapped code clone detection with lightweight source code analysis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R. Tekchandani; R. K. Bhatia; M. Singh</t>
+          <t>H. Murakami; K. Hotta; Y. Higo; H. Igaki; S. Kusumoto</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2684,30 +2680,34 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10.1049/cp.2013.2291</t>
+          <t>10.1109/ICPC.2013.6613837</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>978-1-84919-846-2</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>978-1-4673-3092-3</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1092-8138</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6832306</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6613837</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Semantic-Enabled Clone Detection</t>
+          <t>Semantic code clone detection using parse trees and grammar recovery</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>I. Keivanloo; J. Rilling</t>
+          <t>R. Tekchandani; R. K. Bhatia; M. Singh</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2717,67 +2717,67 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10.1109/COMPSAC.2013.66</t>
+          <t>10.1049/cp.2013.2291</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>978-0-7695-4986-6</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0730-3157</t>
-        </is>
-      </c>
+          <t>978-1-84919-846-2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6649853</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6832306</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A code clone oracle</t>
+          <t>Semantic-Enabled Clone Detection</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Krutz, Daniel E.; Le, Wei</t>
+          <t>I. Keivanloo; J. Rilling</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10.1145/2597073.2597127</t>
+          <t>10.1109/COMPSAC.2013.66</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>978-1-4503-2863-0</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+          <t>978-0-7695-4986-6</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0730-3157</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2597073.2597127</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6649853</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A hybrid technique in pre-processing and transformation process for code clone detection</t>
+          <t>A code clone oracle</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A. -F. Mubarak Ali; S. Sulaiman</t>
+          <t>Krutz, Daniel E.; Le, Wei</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2787,30 +2787,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10.1109/MySec.2014.6985997</t>
+          <t>10.1145/2597073.2597127</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>978-1-4799-5439-1</t>
+          <t>978-1-4503-2863-0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6985997</t>
+          <t>https://doi.org/10.1145/2597073.2597127</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>An improved method for tree-based clone detection in Web Applications</t>
+          <t>A hybrid technique in pre-processing and transformation process for code clone detection</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C. Li; J. Sun; H. Chen</t>
+          <t>A. -F. Mubarak Ali; S. Sulaiman</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2820,30 +2820,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10.1109/DICTAP.2014.6821712</t>
+          <t>10.1109/MySec.2014.6985997</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>978-1-4799-3724-0</t>
+          <t>978-1-4799-5439-1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6821712</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6985997</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BinClone: Detecting Code Clones in Malware</t>
+          <t>An improved method for tree-based clone detection in Web Applications</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>M. R. Farhadi; B. C. M. Fung; P. Charland; M. Debbabi</t>
+          <t>C. Li; J. Sun; H. Chen</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2853,30 +2853,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10.1109/SERE.2014.21</t>
+          <t>10.1109/DICTAP.2014.6821712</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>978-1-4799-4296-1</t>
+          <t>978-1-4799-3724-0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6895418</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6821712</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Clone detection algorithm based on the Abstract Syntax Tree approach</t>
+          <t>BinClone: Detecting Code Clones in Malware</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>F. -M. Lazar; O. Banias</t>
+          <t>M. R. Farhadi; B. C. M. Fung; P. Charland; M. Debbabi</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2886,30 +2886,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10.1109/SACI.2014.6840038</t>
+          <t>10.1109/SERE.2014.21</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>978-1-4799-4694-5</t>
+          <t>978-1-4799-4296-1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6840038</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6895418</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Clonepedia: Summarizing Code Clones by Common Syntactic Context for Software Maintenance</t>
+          <t>Clone detection algorithm based on the Abstract Syntax Tree approach</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Y. Lin; Z. Xing; X. Peng; Y. Liu; J. Sun; W. Zhao; J. Dong</t>
+          <t>F. -M. Lazar; O. Banias</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2919,34 +2919,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.1109/ICSME.2014.56</t>
+          <t>10.1109/SACI.2014.6840038</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>978-1-4799-6146-7</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1063-6773</t>
-        </is>
-      </c>
+          <t>978-1-4799-4694-5</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6976100</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6840038</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Compiling Clones: What Happens?</t>
+          <t>Clonepedia: Summarizing Code Clones by Common Syntactic Context for Software Maintenance</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>O. Kononenko; C. Zhang; M. W. Godfrey</t>
+          <t>Y. Lin; Z. Xing; X. Peng; Y. Liu; J. Sun; W. Zhao; J. Dong</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2956,7 +2952,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10.1109/ICSME.2014.78</t>
+          <t>10.1109/ICSME.2014.56</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2971,19 +2967,19 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6976122</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6976100</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Implementing a 3-way approach of clone detection and removal using PC Detector tool</t>
+          <t>Compiling Clones: What Happens?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>G. Mahajan; M. Bharti</t>
+          <t>O. Kononenko; C. Zhang; M. W. Godfrey</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2993,30 +2989,34 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10.1109/IAdCC.2014.6779537</t>
+          <t>10.1109/ICSME.2014.78</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>978-1-4799-2572-8</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>978-1-4799-6146-7</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1063-6773</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6779537</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6976122</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>One pass preprocessing for token-based source code clone detection</t>
+          <t>Implementing a 3-way approach of clone detection and removal using PC Detector tool</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>D. Li; M. Piao; H. S. Shon; K. H. Ryu; I. Paik</t>
+          <t>G. Mahajan; M. Bharti</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3026,34 +3026,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10.1109/ICAwST.2014.6981824</t>
+          <t>10.1109/IAdCC.2014.6779537</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>978-1-4799-7373-6</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2325-5994</t>
-        </is>
-      </c>
+          <t>978-1-4799-2572-8</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6981824</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6779537</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Selecting a set of appropriate metrics for detecting code clones</t>
+          <t>One pass preprocessing for token-based source code clone detection</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>G. Bansal; R. Tekchandani</t>
+          <t>D. Li; M. Piao; H. S. Shon; K. H. Ryu; I. Paik</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3063,30 +3059,34 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.1109/IC3.2014.6897221</t>
+          <t>10.1109/ICAwST.2014.6981824</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>978-1-4799-5173-4</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>978-1-4799-7373-6</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2325-5994</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6897221</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6981824</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Software code cloning detection and future scope development- Latest short review</t>
+          <t>Selecting a set of appropriate metrics for detecting code clones</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R. V. Patil; L. V. Patil; S. V. Shinde; S. D. Joshi</t>
+          <t>G. Bansal; R. Tekchandani</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3096,30 +3096,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>10.1109/ICRAIE.2014.6909115</t>
+          <t>10.1109/IC3.2014.6897221</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>978-1-4799-4040-0</t>
+          <t>978-1-4799-5173-4</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6909115</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6897221</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Towards a Big Data Curated Benchmark of Inter-project Code Clones</t>
+          <t>Software code cloning detection and future scope development- Latest short review</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J. Svajlenko; J. F. Islam; I. Keivanloo; C. K. Roy; M. M. Mia</t>
+          <t>R. V. Patil; L. V. Patil; S. V. Shinde; S. D. Joshi</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3129,67 +3129,67 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>10.1109/ICSME.2014.77</t>
+          <t>10.1109/ICRAIE.2014.6909115</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>978-1-4799-6146-7</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1063-6773</t>
-        </is>
-      </c>
+          <t>978-1-4799-4040-0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6976121</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6909115</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>An execution-semantic and content-and-context-based code-clone detection and analysis</t>
+          <t>Towards a Big Data Curated Benchmark of Inter-project Code Clones</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>T. Kamiya</t>
+          <t>J. Svajlenko; J. F. Islam; I. Keivanloo; C. K. Roy; M. M. Mia</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2015.7069882</t>
+          <t>10.1109/ICSME.2014.77</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>978-1-4673-6914-5</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+          <t>978-1-4799-6146-7</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1063-6773</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7069882</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=6976121</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Code clone detection using coarse and fine-grained hybrid approaches</t>
+          <t>An execution-semantic and content-and-context-based code-clone detection and analysis</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A. Sheneamer; J. Kalita</t>
+          <t>T. Kamiya</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3199,30 +3199,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10.1109/IntelCIS.2015.7397263</t>
+          <t>10.1109/IWSC.2015.7069882</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>978-1-5090-1950-2</t>
+          <t>978-1-4673-6914-5</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7397263</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7069882</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Code clone detection using decentralized architecture and code reduction</t>
+          <t>Code clone detection using coarse and fine-grained hybrid approaches</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R. V. Patil; S. D. Joshi; S. V. Shinde; D. A. Ajagekar; S. D. Bankar</t>
+          <t>A. Sheneamer; J. Kalita</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3232,30 +3232,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10.1109/PERVASIVE.2015.7087126</t>
+          <t>10.1109/IntelCIS.2015.7397263</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>978-1-4799-6272-3</t>
+          <t>978-1-5090-1950-2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7087126</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7397263</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Code clone detection using wavelets</t>
+          <t>Code clone detection using decentralized architecture and code reduction</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S. Karus; K. Kilgi</t>
+          <t>R. V. Patil; S. D. Joshi; S. V. Shinde; D. A. Ajagekar; S. D. Bankar</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3265,30 +3265,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2015.7069883</t>
+          <t>10.1109/PERVASIVE.2015.7087126</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>978-1-4673-6914-5</t>
+          <t>978-1-4799-6272-3</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7069883</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7087126</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Examining the effectiveness of using concolic analysis to detect code clones</t>
+          <t>Code clone detection using wavelets</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Krutz, Daniel E.; Malachowsky, Samuel A.; Shihab, Emad</t>
+          <t>S. Karus; K. Kilgi</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3298,30 +3298,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10.1145/2695664.2695929</t>
+          <t>10.1109/IWSC.2015.7069883</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>978-1-4503-3196-8</t>
+          <t>978-1-4673-6914-5</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2695664.2695929</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7069883</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LLVM-based code clone detection framework</t>
+          <t>Examining the effectiveness of using concolic analysis to detect code clones</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A. Avetisyan; S. Kurmangaleev; S. Sargsyan; M. Arutunian; A. Belevantsev</t>
+          <t>Krutz, Daniel E.; Malachowsky, Samuel A.; Shihab, Emad</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3331,30 +3331,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>10.1109/CSITechnol.2015.7358259</t>
+          <t>10.1145/2695664.2695929</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>978-1-4673-7562-7</t>
+          <t>978-1-4503-3196-8</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7358259</t>
+          <t>https://doi.org/10.1145/2695664.2695929</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SIMONE: Architecture-sensitive near-miss clone detection for simulink models</t>
+          <t>LLVM-based code clone detection framework</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cordy, James R.</t>
+          <t>A. Avetisyan; S. Kurmangaleev; S. Sargsyan; M. Arutunian; A. Belevantsev</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3364,30 +3364,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>10.1145/2752489.2752498</t>
+          <t>10.1109/CSITechnol.2015.7358259</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>978-1-4503-3444-0</t>
+          <t>978-1-4673-7562-7</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2752489.2752498</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7358259</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Threshold-free code clone detection for a large-scale heterogeneous Java repository</t>
+          <t>SIMONE: Architecture-sensitive near-miss clone detection for simulink models</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>I. Keivanloo; F. Zhang; Y. Zou</t>
+          <t>Cordy, James R.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3397,34 +3397,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>10.1109/SANER.2015.7081830</t>
+          <t>10.1145/2752489.2752498</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>978-1-4799-8469-5</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>1534-5351</t>
-        </is>
-      </c>
+          <t>978-1-4503-3444-0</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7081830</t>
+          <t>https://doi.org/10.1145/2752489.2752498</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>What do practitioners ask about code clone? a preliminary investigation of stack overflow</t>
+          <t>Threshold-free code clone detection for a large-scale heterogeneous Java repository</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>E. Choi; N. Yoshida; R. G. Kula; K. Inoue</t>
+          <t>I. Keivanloo; F. Zhang; Y. Zou</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3434,63 +3430,67 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2015.7069890</t>
+          <t>10.1109/SANER.2015.7081830</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>978-1-4673-6914-5</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>978-1-4799-8469-5</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1534-5351</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7069890</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7081830</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Assessing the Differences of Clone Detection Methods Used in the Fault-Prone Module Prediction</t>
+          <t>What do practitioners ask about code clone? a preliminary investigation of stack overflow</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>M. Tsunoda; Y. Kamei; A. Sawada</t>
+          <t>E. Choi; N. Yoshida; R. G. Kula; K. Inoue</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10.1109/SANER.2016.65</t>
+          <t>10.1109/IWSC.2015.7069890</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>978-1-5090-1855-0</t>
+          <t>978-1-4673-6914-5</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7476788</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7069890</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Challenges in Behavioral Code Clone Detection</t>
+          <t>Assessing the Differences of Clone Detection Methods Used in the Fault-Prone Module Prediction</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>F. -H. Su; J. Bell; G. Kaiser</t>
+          <t>M. Tsunoda; Y. Kamei; A. Sawada</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10.1109/SANER.2016.75</t>
+          <t>10.1109/SANER.2016.65</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3511,19 +3511,19 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7476791</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7476788</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Code clone detection based on order and content of control statements</t>
+          <t>Challenges in Behavioral Code Clone Detection</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>M. Sudhamani; L. Rangarajan</t>
+          <t>F. -H. Su; J. Bell; G. Kaiser</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3533,30 +3533,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>10.1109/IC3I.2016.7917935</t>
+          <t>10.1109/SANER.2016.75</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>978-1-5090-5256-1</t>
+          <t>978-1-5090-1855-0</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7917935</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7476791</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Code clones detection using machine learning technique: Support vector machine</t>
+          <t>Code clone detection based on order and content of control statements</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>S. Jadon</t>
+          <t>M. Sudhamani; L. Rangarajan</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3566,30 +3566,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10.1109/CCAA.2016.7813733</t>
+          <t>10.1109/IC3I.2016.7917935</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>978-1-5090-1666-2</t>
+          <t>978-1-5090-5256-1</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7813733</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7917935</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Comparative study of software clone detection techniques</t>
+          <t>Code clones detection using machine learning technique: Support vector machine</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>K. Solanki; S. Kumari</t>
+          <t>S. Jadon</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3599,30 +3599,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10.1109/MITICON.2016.8025227</t>
+          <t>10.1109/CCAA.2016.7813733</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>978-1-5090-4105-3</t>
+          <t>978-1-5090-1666-2</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8025227</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7813733</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Deep learning code fragments for code clone detection</t>
+          <t>Comparative study of software clone detection techniques</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>White, Martin; Tufano, Michele; Vendome, Christopher; Poshyvanyk, Denys</t>
+          <t>K. Solanki; S. Kumari</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3632,30 +3632,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10.1145/2970276.2970326</t>
+          <t>10.1109/MITICON.2016.8025227</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>978-1-4503-3845-5</t>
+          <t>978-1-5090-4105-3</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2970276.2970326</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8025227</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Detecting table clones and smells in spreadsheets</t>
+          <t>Deep learning code fragments for code clone detection</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Dou, Wensheng; Cheung, Shing-Chi; Gao, Chushu; Xu, Chang; Xu, Liang; Wei, Jun</t>
+          <t>White, Martin; Tufano, Michele; Vendome, Christopher; Poshyvanyk, Denys</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3665,30 +3665,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>10.1145/2950290.2950359</t>
+          <t>10.1145/2970276.2970326</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>978-1-4503-4218-6</t>
+          <t>978-1-4503-3845-5</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2950290.2950359</t>
+          <t>https://doi.org/10.1145/2970276.2970326</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Generating clone references with less human subjectivity</t>
+          <t>Detecting table clones and smells in spreadsheets</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Y. Yuki; Y. Higo; K. Hotta; S. Kusumoto</t>
+          <t>Dou, Wensheng; Cheung, Shing-Chi; Gao, Chushu; Xu, Chang; Xu, Liang; Wei, Jun</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>10.1109/ICPC.2016.7503739</t>
+          <t>10.1145/2950290.2950359</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>978-1-5090-1428-6</t>
+          <t>978-1-4503-4218-6</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7503739</t>
+          <t>https://doi.org/10.1145/2950290.2950359</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Generic code Cloning method for detection of Clone code in software Development</t>
+          <t>Generating clone references with less human subjectivity</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>S. M. F. Haque; V. Srikanth; E. S. Reddy</t>
+          <t>Y. Yuki; Y. Higo; K. Hotta; S. Kusumoto</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3731,30 +3731,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>10.1109/SAPIENCE.2016.7684149</t>
+          <t>10.1109/ICPC.2016.7503739</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>978-1-4673-8594-7</t>
+          <t>978-1-5090-1428-6</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7684149</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7503739</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Identification of Recurring Patterns of Code to Detect Structural Clones</t>
+          <t>Generic code Cloning method for detection of Clone code in software Development</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>H. Kaur; R. Maini</t>
+          <t>S. M. F. Haque; V. Srikanth; E. S. Reddy</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3764,30 +3764,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>10.1109/IACC.2016.80</t>
+          <t>10.1109/SAPIENCE.2016.7684149</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>978-1-4673-8286-1</t>
+          <t>978-1-4673-8594-7</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7544869</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7684149</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Identifying functionally similar code in complex codebases</t>
+          <t>Identification of Recurring Patterns of Code to Detect Structural Clones</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fang-Hsiang Su; J. Bell; G. Kaiser; S. Sethumadhavan</t>
+          <t>H. Kaur; R. Maini</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3797,30 +3797,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>10.1109/ICPC.2016.7503720</t>
+          <t>10.1109/IACC.2016.80</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>978-1-5090-1428-6</t>
+          <t>978-1-4673-8286-1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7503720</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7544869</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Introducing Parameter Sensitivity to Dynamic Code-Clone Analysis Methods</t>
+          <t>Identifying functionally similar code in complex codebases</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>T. Kamiya</t>
+          <t>Fang-Hsiang Su; J. Bell; G. Kaiser; S. Sethumadhavan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3830,30 +3830,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10.1109/SANER.2016.111</t>
+          <t>10.1109/ICPC.2016.7503720</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>978-1-5090-1855-0</t>
+          <t>978-1-5090-1428-6</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7476790</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7503720</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Measuring Code Similarity in Large-Scaled Code Corpora</t>
+          <t>Introducing Parameter Sensitivity to Dynamic Code-Clone Analysis Methods</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C. Ragkhitwetsagul</t>
+          <t>T. Kamiya</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3863,30 +3863,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10.1109/ICSME.2016.18</t>
+          <t>10.1109/SANER.2016.111</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>978-1-5090-3806-0</t>
+          <t>978-1-5090-1855-0</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7816530</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7476790</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Semantic Clone Detection Using Machine Learning</t>
+          <t>Measuring Code Similarity in Large-Scaled Code Corpora</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A. Sheneamer; J. Kalita</t>
+          <t>C. Ragkhitwetsagul</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3896,30 +3896,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10.1109/ICMLA.2016.0185</t>
+          <t>10.1109/ICSME.2016.18</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>978-1-5090-6167-9</t>
+          <t>978-1-5090-3806-0</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7838289</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7816530</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SourcererCC: Scaling Code Clone Detection to Big-Code</t>
+          <t>Semantic Clone Detection Using Machine Learning</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>H. Sajnani; V. Saini; J. Svajlenko; C. K. Roy; C. V. Lopes</t>
+          <t>A. Sheneamer; J. Kalita</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3929,34 +3929,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10.1145/2884781.2884877</t>
+          <t>10.1109/ICMLA.2016.0185</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>978-1-4503-3900-1</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>1558-1225</t>
-        </is>
-      </c>
+          <t>978-1-5090-6167-9</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7886988</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7838289</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Systematic mapping study of metrics based clone detection techniques</t>
+          <t>SourcererCC: Scaling Code Clone Detection to Big-Code</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Rattan, Dhavleesh; Kaur, Jagdeep</t>
+          <t>H. Sajnani; V. Saini; J. Svajlenko; C. K. Roy; C. V. Lopes</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3966,63 +3962,67 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10.1145/2979779.2979855</t>
+          <t>10.1145/2884781.2884877</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>978-1-4503-4213-1</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
+          <t>978-1-4503-3900-1</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1558-1225</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2979779.2979855</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7886988</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A technique to detect multi-grained code clones</t>
+          <t>Systematic mapping study of metrics based clone detection techniques</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Y. Yuki; Y. Higo; S. Kusumoto</t>
+          <t>Rattan, Dhavleesh; Kaur, Jagdeep</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2017.7880510</t>
+          <t>10.1145/2979779.2979855</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>978-1-5090-6595-0</t>
+          <t>978-1-4503-4213-1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880510</t>
+          <t>https://doi.org/10.1145/2979779.2979855</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Binary code clone detection across architectures and compiling configurations</t>
+          <t>A technique to detect multi-grained code clones</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hu, Yikun; Zhang, Yuanyuan; Li, Juanru; Gu, Dawu</t>
+          <t>Y. Yuki; Y. Higo; S. Kusumoto</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4032,30 +4032,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10.1109/ICPC.2017.22</t>
+          <t>10.1109/IWSC.2017.7880510</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>978-1-5386-0535-6</t>
+          <t>978-1-5090-6595-0</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICPC.2017.22</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880510</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CCSharp: An Efficient Three-Phase Code Clone Detector Using Modified PDGs</t>
+          <t>Binary code clone detection across architectures and compiling configurations</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>M. Wang; P. Wang; Y. Xu</t>
+          <t>Hu, Yikun; Zhang, Yuanyuan; Li, Juanru; Gu, Dawu</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4065,30 +4065,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>10.1109/APSEC.2017.16</t>
+          <t>10.1109/ICPC.2017.22</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>978-1-5386-3681-7</t>
+          <t>978-1-5386-0535-6</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8305932</t>
+          <t>https://doi.org/10.1109/ICPC.2017.22</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CloneWorks: A Fast and Flexible Large-Scale Near-Miss Clone Detection Tool</t>
+          <t>CCSharp: An Efficient Three-Phase Code Clone Detector Using Modified PDGs</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>J. Svajlenko; C. K. Roy</t>
+          <t>M. Wang; P. Wang; Y. Xu</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4098,30 +4098,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>10.1109/ICSE-C.2017.78</t>
+          <t>10.1109/APSEC.2017.16</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>978-1-5386-1589-8</t>
+          <t>978-1-5386-3681-7</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7965295</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8305932</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Component-based experimental testbed to faciltiate code clone detection research</t>
+          <t>CloneWorks: A Fast and Flexible Large-Scale Near-Miss Clone Detection Tool</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C. Wijesiriwardana; P. Wimalaratne</t>
+          <t>J. Svajlenko; C. K. Roy</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4131,34 +4131,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>10.1109/ICSESS.2017.8342888</t>
+          <t>10.1109/ICSE-C.2017.78</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>978-1-5386-0497-7</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2327-0594</t>
-        </is>
-      </c>
+          <t>978-1-5386-1589-8</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8342888</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7965295</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Detecting Java Code Clones with Multi-granularities Based on Bytecode</t>
+          <t>Component-based experimental testbed to faciltiate code clone detection research</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>D. Yu; J. Wang; Q. Wu; J. Yang; J. Wang; W. Yang; W. Yan</t>
+          <t>C. Wijesiriwardana; P. Wimalaratne</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4168,34 +4164,34 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10.1109/COMPSAC.2017.104</t>
+          <t>10.1109/ICSESS.2017.8342888</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>978-1-5386-0367-3</t>
+          <t>978-1-5386-0497-7</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0730-3157</t>
+          <t>2327-0594</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8029624</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8342888</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Detecting and analyzing code clones in HDL</t>
+          <t>Detecting Java Code Clones with Multi-granularities Based on Bytecode</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>K. Uemura; A. Mori; K. Fujiwara; E. Choi; H. Iida</t>
+          <t>D. Yu; J. Wang; Q. Wu; J. Yang; J. Wang; W. Yang; W. Yan</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4205,30 +4201,34 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2017.7880501</t>
+          <t>10.1109/COMPSAC.2017.104</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>978-1-5090-6595-0</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
+          <t>978-1-5386-0367-3</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0730-3157</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880501</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8029624</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Detecting code clones with gaps by function applications</t>
+          <t>Detecting and analyzing code clones in HDL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Matsushita, Tsubasa; Sasano, Isao</t>
+          <t>K. Uemura; A. Mori; K. Fujiwara; E. Choi; H. Iida</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4238,30 +4238,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10.1145/3018882.3018892</t>
+          <t>10.1109/IWSC.2017.7880501</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>978-1-4503-4721-1</t>
+          <t>978-1-5090-6595-0</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3018882.3018892</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880501</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Detection of near-miss clones using metrics and Abstract Syntax Trees</t>
+          <t>Detecting code clones with gaps by function applications</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Vishwachi; S. Gupta</t>
+          <t>Matsushita, Tsubasa; Sasano, Isao</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4271,30 +4271,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10.1109/ICICCT.2017.7975193</t>
+          <t>10.1145/3018882.3018892</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>978-1-5090-5297-4</t>
+          <t>978-1-4503-4721-1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7975193</t>
+          <t>https://doi.org/10.1145/3018882.3018892</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Enhancing program dependency graph based clone detection using approximate subgraph matching</t>
+          <t>Detection of near-miss clones using metrics and Abstract Syntax Trees</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C. M. Kamalpriya; P. Singh</t>
+          <t>Vishwachi; S. Gupta</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4304,30 +4304,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2017.7880511</t>
+          <t>10.1109/ICICCT.2017.7975193</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>978-1-5090-6595-0</t>
+          <t>978-1-5090-5297-4</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880511</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7975193</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Exploring code clones in programmable logic controller software</t>
+          <t>Enhancing program dependency graph based clone detection using approximate subgraph matching</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>H. Thaller; R. Ramler; J. Pichler; A. Egyed</t>
+          <t>C. M. Kamalpriya; P. Singh</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4337,34 +4337,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>10.1109/ETFA.2017.8247574</t>
+          <t>10.1109/IWSC.2017.7880511</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>978-1-5090-6505-9</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>1946-0759</t>
-        </is>
-      </c>
+          <t>978-1-5090-6595-0</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8247574</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880511</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fast and Flexible Large-Scale Clone Detection with CloneWorks</t>
+          <t>Exploring code clones in programmable logic controller software</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>J. Svajlenko; C. K. Roy</t>
+          <t>H. Thaller; R. Ramler; J. Pichler; A. Egyed</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4374,30 +4370,34 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>10.1109/ICSE-C.2017.3</t>
+          <t>10.1109/ETFA.2017.8247574</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>978-1-5386-1589-8</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
+          <t>978-1-5090-6505-9</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1946-0759</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7965249</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8247574</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Interface Driven Code Clone Detection</t>
+          <t>Fast and Flexible Large-Scale Clone Detection with CloneWorks</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>M. R. H. Misu; K. Sakib</t>
+          <t>J. Svajlenko; C. K. Roy</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4407,30 +4407,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>10.1109/APSEC.2017.97</t>
+          <t>10.1109/ICSE-C.2017.3</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>978-1-5386-3681-7</t>
+          <t>978-1-5386-1589-8</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8306014</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7965249</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Rearranging the order of program statements for code clone detection</t>
+          <t>Interface Driven Code Clone Detection</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Y. Sabi; Y. Higo; S. Kusumoto</t>
+          <t>M. R. H. Misu; K. Sakib</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4440,30 +4440,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2017.7880503</t>
+          <t>10.1109/APSEC.2017.97</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>978-1-5090-6595-0</t>
+          <t>978-1-5386-3681-7</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880503</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8306014</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>To enhance the code clone detection algorithm by using hybrid approach for detection of code clones</t>
+          <t>Rearranging the order of program statements for code clone detection</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Roopam; G. Singh</t>
+          <t>Y. Sabi; Y. Higo; S. Kusumoto</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4473,30 +4473,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>10.1109/ICCONS.2017.8250708</t>
+          <t>10.1109/IWSC.2017.7880503</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>978-1-5386-2745-7</t>
+          <t>978-1-5090-6595-0</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8250708</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880503</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Transferring code-clone detection and analysis to practice</t>
+          <t>To enhance the code clone detection algorithm by using hybrid approach for detection of code clones</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Dang, Yingnong; Zhang, Dongmei; Ge, Song; Huang, Ray; Chu, Chengyun; Xie, Tao</t>
+          <t>Roopam; G. Singh</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4506,30 +4506,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10.1109/ICSE-SEIP.2017.6</t>
+          <t>10.1109/ICCONS.2017.8250708</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>978-1-5386-2717-4</t>
+          <t>978-1-5386-2745-7</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICSE-SEIP.2017.6</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8250708</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Using compilation/decompilation to enhance clone detection</t>
+          <t>Transferring code-clone detection and analysis to practice</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C. Ragkhitwetsagul; J. Krinke</t>
+          <t>Dang, Yingnong; Zhang, Dongmei; Ge, Song; Huang, Ray; Chu, Chengyun; Xie, Tao</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4539,30 +4539,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2017.7880502</t>
+          <t>10.1109/ICSE-SEIP.2017.6</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>978-1-5090-6595-0</t>
+          <t>978-1-5386-2717-4</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880502</t>
+          <t>https://doi.org/10.1109/ICSE-SEIP.2017.6</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VFDETECT: A vulnerable code clone detection system based on vulnerability fingerprint</t>
+          <t>Using compilation/decompilation to enhance clone detection</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Z. Liu; Q. Wei; Y. Cao</t>
+          <t>C. Ragkhitwetsagul; J. Krinke</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4572,30 +4572,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>10.1109/ITOEC.2017.8122356</t>
+          <t>10.1109/IWSC.2017.7880502</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>978-1-5090-5363-6</t>
+          <t>978-1-5090-6595-0</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8122356</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7880502</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>VUDDY: A Scalable Approach for Vulnerable Code Clone Discovery</t>
+          <t>VFDETECT: A vulnerable code clone detection system based on vulnerability fingerprint</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>S. Kim; S. Woo; H. Lee; H. Oh</t>
+          <t>Z. Liu; Q. Wei; Y. Cao</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4605,71 +4605,67 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10.1109/SP.2017.62</t>
+          <t>10.1109/ITOEC.2017.8122356</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>978-1-5090-5533-3</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2375-1207</t>
-        </is>
-      </c>
+          <t>978-1-5090-5363-6</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7958600</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8122356</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A picture is worth a thousand words: Code clone detection based on image similarity</t>
+          <t>VUDDY: A Scalable Approach for Vulnerable Code Clone Discovery</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>C. Ragkhitwetsagul; J. Krinke; B. Marnette</t>
+          <t>S. Kim; S. Woo; H. Lee; H. Oh</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10.1109/IWSC.2018.8327318</t>
+          <t>10.1109/SP.2017.62</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>978-1-5386-6430-8</t>
+          <t>978-1-5090-5533-3</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2572-6587</t>
+          <t>2375-1207</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8327318</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7958600</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Adventures in NICAD: A ten-year retrospective</t>
+          <t>A picture is worth a thousand words: Code clone detection based on image similarity</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Roy, Chanchal K.; Cordy, James R.</t>
+          <t>C. Ragkhitwetsagul; J. Krinke; B. Marnette</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4679,30 +4675,34 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>10.1145/3196321.3196325</t>
+          <t>10.1109/IWSC.2018.8327318</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>978-1-4503-5714-2</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
+          <t>978-1-5386-6430-8</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2572-6587</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3196321.3196325</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8327318</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCFinder: A Lightweight and Platform-Independent Tool to Find Third-Party Components in Binaries</t>
+          <t>Adventures in NICAD: A ten-year retrospective</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>W. Tang; D. Chen; P. Luo</t>
+          <t>Roy, Chanchal K.; Cordy, James R.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4712,34 +4712,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>10.1109/APSEC.2018.00043</t>
+          <t>10.1145/3196321.3196325</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>978-1-7281-1970-0</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2640-0715</t>
-        </is>
-      </c>
+          <t>978-1-4503-5714-2</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8719473</t>
+          <t>https://doi.org/10.1145/3196321.3196325</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BinMatch: A Semantics-Based Hybrid Approach on Binary Code Clone Analysis</t>
+          <t>BCFinder: A Lightweight and Platform-Independent Tool to Find Third-Party Components in Binaries</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Y. Hu; Y. Zhang; J. Li; H. Wang; B. Li; D. Gu</t>
+          <t>W. Tang; D. Chen; P. Luo</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4749,34 +4745,34 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>10.1109/ICSME.2018.00019</t>
+          <t>10.1109/APSEC.2018.00043</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>978-1-5386-7870-1</t>
+          <t>978-1-7281-1970-0</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2576-3148</t>
+          <t>2640-0715</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8530021</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8719473</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CCDLC Detection Framework-Combining Clustering with Deep Learning Classification for Semantic Clones</t>
+          <t>BinMatch: A Semantics-Based Hybrid Approach on Binary Code Clone Analysis</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>A. Sheneamer</t>
+          <t>Y. Hu; Y. Zhang; J. Li; H. Wang; B. Li; D. Gu</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4786,30 +4782,34 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>10.1109/ICMLA.2018.00111</t>
+          <t>10.1109/ICSME.2018.00019</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>978-1-5386-6805-4</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
+          <t>978-1-5386-7870-1</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2576-3148</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8614136</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8530021</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Clone-slicer: Detecting domain specific binary code clones through program slicing</t>
+          <t>CCDLC Detection Framework-Combining Clustering with Deep Learning Classification for Semantic Clones</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Xue, Hongfa; Venkataramani, Guru; Lan, Tian</t>
+          <t>A. Sheneamer</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4819,30 +4819,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>10.1145/3273045.3273047</t>
+          <t>10.1109/ICMLA.2018.00111</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>978-1-4503-5997-9</t>
+          <t>978-1-5386-6805-4</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3273045.3273047</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8614136</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cloned Buggy Code Detection in Practice Using Normalized Compression Distance</t>
+          <t>Clone-slicer: Detecting domain specific binary code clones through program slicing</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>T. Ishio; N. Maeda; K. Shibuya; K. Inoue</t>
+          <t>Xue, Hongfa; Venkataramani, Guru; Lan, Tian</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4852,34 +4852,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>10.1109/ICSME.2018.00022</t>
+          <t>10.1145/3273045.3273047</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>978-1-5386-7870-1</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2576-3148</t>
-        </is>
-      </c>
+          <t>978-1-4503-5997-9</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8530071</t>
+          <t>https://doi.org/10.1145/3273045.3273047</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Investigating Vector-Based Detection of Code Clones Using BigCloneBench</t>
+          <t>Cloned Buggy Code Detection in Practice Using Normalized Compression Distance</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>K. Yokoi; E. Choi; N. Yoshida; K. Inoue</t>
+          <t>T. Ishio; N. Maeda; K. Shibuya; K. Inoue</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4889,34 +4885,34 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>10.1109/APSEC.2018.00095</t>
+          <t>10.1109/ICSME.2018.00022</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>978-1-7281-1970-0</t>
+          <t>978-1-5386-7870-1</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2640-0715</t>
+          <t>2576-3148</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8719484</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8530071</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Multilingual Detection of Code Clones Using ANTLR Grammar Definitions</t>
+          <t>Investigating Vector-Based Detection of Code Clones Using BigCloneBench</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Y. Semura; N. Yoshida; E. Choi; K. Inoue</t>
+          <t>K. Yokoi; E. Choi; N. Yoshida; K. Inoue</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4926,7 +4922,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>10.1109/APSEC.2018.00088</t>
+          <t>10.1109/APSEC.2018.00095</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4941,19 +4937,19 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8719568</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8719484</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Oreo: Detection of clones in the twilight zone</t>
+          <t>Multilingual Detection of Code Clones Using ANTLR Grammar Definitions</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Saini, Vaibhav; Farmahinifarahani, Farima; Lu, Yadong; Baldi, Pierre; Lopes, Cristina V.</t>
+          <t>Y. Semura; N. Yoshida; E. Choi; K. Inoue</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4963,30 +4959,34 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>10.1145/3236024.3236026</t>
+          <t>10.1109/APSEC.2018.00088</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>978-1-4503-5573-5</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
+          <t>978-1-7281-1970-0</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2640-0715</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3236024.3236026</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8719568</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Semantic Clone Detection: Can Source Code Comments Help?</t>
+          <t>Oreo: Detection of clones in the twilight zone</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A. Ghosh; S. K. Kuttal</t>
+          <t>Saini, Vaibhav; Farmahinifarahani, Farima; Lu, Yadong; Baldi, Pierre; Lopes, Cristina V.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4996,34 +4996,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>10.1109/VLHCC.2018.8506550</t>
+          <t>10.1145/3236024.3236026</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>978-1-5386-4235-1</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>1943-6106</t>
-        </is>
-      </c>
+          <t>978-1-4503-5573-5</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8506550</t>
+          <t>https://doi.org/10.1145/3236024.3236026</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Semantic code clone detection using abstract memory states and program dependency graphs</t>
+          <t>Semantic Clone Detection: Can Source Code Comments Help?</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>H. Nasirloo; F. Azimzadeh</t>
+          <t>A. Ghosh; S. K. Kuttal</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5033,30 +5029,34 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>10.1109/ICWR.2018.8387232</t>
+          <t>10.1109/VLHCC.2018.8506550</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>978-1-5386-5364-7</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
+          <t>978-1-5386-4235-1</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1943-6106</t>
+        </is>
+      </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8387232</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8506550</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Structural Function Based Code Clone Detection Using a New Hybrid Technique</t>
+          <t>Semantic code clone detection using abstract memory states and program dependency graphs</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Y. Yang; Z. Ren; X. Chen; H. Jiang</t>
+          <t>H. Nasirloo; F. Azimzadeh</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5066,34 +5066,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>10.1109/COMPSAC.2018.00045</t>
+          <t>10.1109/ICWR.2018.8387232</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>978-1-5386-2667-2</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>0730-3157</t>
-        </is>
-      </c>
+          <t>978-1-5386-5364-7</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8377669</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8387232</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Test-Based Clone Detection: an Initial Try on Semantically Equivalent Methods</t>
+          <t>Structural Function Based Code Clone Detection Using a New Hybrid Technique</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>G. Li; H. Liu; Y. Jiang; J. Jin</t>
+          <t>Y. Yang; Z. Ren; X. Chen; H. Jiang</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5103,30 +5099,34 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2018.2883699</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
+          <t>10.1109/COMPSAC.2018.00045</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>978-1-5386-2667-2</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2169-3536</t>
+          <t>0730-3157</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8550632</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8377669</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>[Research Paper] On the Use of Machine Learning Techniques Towards the Design of Cloud Based Automatic Code Clone Validation Tools</t>
+          <t>Test-Based Clone Detection: an Initial Try on Semantically Equivalent Methods</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>G. Mostaeen; J. Svajlenko; B. Roy; C. K. Roy; K. A. Schneider</t>
+          <t>G. Li; H. Liu; Y. Jiang; J. Jin</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5136,67 +5136,67 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>10.1109/SCAM.2018.00025</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>978-1-5386-8290-6</t>
-        </is>
-      </c>
+          <t>10.1109/ACCESS.2018.2883699</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2470-6892</t>
+          <t>2169-3536</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8530729</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8550632</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A Large-Gap Clone Detection Approach Using Sequence Alignment via Dynamic Parameter Optimization</t>
+          <t>[Research Paper] On the Use of Machine Learning Techniques Towards the Design of Cloud Based Automatic Code Clone Validation Tools</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>J. Liu; T. Wang; C. Feng; H. Wang; D. Li</t>
+          <t>G. Mostaeen; J. Svajlenko; B. Roy; C. K. Roy; K. A. Schneider</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2019.2940710</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+          <t>10.1109/SCAM.2018.00025</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>978-1-5386-8290-6</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2169-3536</t>
+          <t>2470-6892</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8834785</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8530729</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A Systematic Review on Code Clone Detection</t>
+          <t>A Large-Gap Clone Detection Approach Using Sequence Alignment via Dynamic Parameter Optimization</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Q. U. Ain; W. H. Butt; M. W. Anwar; F. Azam; B. Maqbool</t>
+          <t>J. Liu; T. Wang; C. Feng; H. Wang; D. Li</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2019.2918202</t>
+          <t>10.1109/ACCESS.2019.2940710</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -5217,19 +5217,19 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8719895</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8834785</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A function level Java code clone detection method</t>
+          <t>A Systematic Review on Code Clone Detection</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>J. Yang; Y. Xiong; J. Ma</t>
+          <t>Q. U. Ain; W. H. Butt; M. W. Anwar; F. Azam; B. Maqbool</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5239,34 +5239,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>10.1109/IAEAC47372.2019.8998079</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>978-1-7281-1907-6</t>
-        </is>
-      </c>
+          <t>10.1109/ACCESS.2019.2918202</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2381-0947</t>
+          <t>2169-3536</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8998079</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8719895</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A model-driven approach for token based code clone detection techniques - an introduction to UMLCCD</t>
+          <t>A function level Java code clone detection method</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ul Ain, Qurat; Azam, Farooque; Anwar, Muhammad Waseem; Kiran, Ayesha</t>
+          <t>J. Yang; Y. Xiong; J. Ma</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5276,30 +5272,34 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>10.1145/3318396.3318440</t>
+          <t>10.1109/IAEAC47372.2019.8998079</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>978-1-4503-6267-2</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
+          <t>978-1-7281-1907-6</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2381-0947</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3318396.3318440</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8998079</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Accurate and Scalable Cross-Architecture Cross-OS Binary Code Search with Emulation</t>
+          <t>A model-driven approach for token based code clone detection techniques - an introduction to UMLCCD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Y. Xue; Z. Xu; M. Chandramohan; Y. Liu</t>
+          <t>Ul Ain, Qurat; Azam, Farooque; Anwar, Muhammad Waseem; Kiran, Ayesha</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5309,30 +5309,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>10.1109/TSE.2018.2827379</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>1939-3520</t>
-        </is>
-      </c>
+          <t>10.1145/3318396.3318440</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>978-1-4503-6267-2</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8338420</t>
+          <t>https://doi.org/10.1145/3318396.3318440</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CLCDSA: Cross Language Code Clone Detection using Syntactical Features and API Documentation</t>
+          <t>Accurate and Scalable Cross-Architecture Cross-OS Binary Code Search with Emulation</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>K. W. Nafi; T. S. Kar; B. Roy; C. K. Roy; K. A. Schneider</t>
+          <t>Y. Xue; Z. Xu; M. Chandramohan; Y. Liu</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5342,34 +5342,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>10.1109/ASE.2019.00099</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>978-1-7281-2508-4</t>
-        </is>
-      </c>
+          <t>10.1109/TSE.2018.2827379</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2643-1572</t>
+          <t>1939-3520</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8952189</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8338420</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cross-language clone detection by learning over abstract syntax trees</t>
+          <t>CLCDSA: Cross Language Code Clone Detection using Syntactical Features and API Documentation</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Perez, Daniel; Chiba, Shigeru</t>
+          <t>K. W. Nafi; T. S. Kar; B. Roy; C. K. Roy; K. A. Schneider</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5379,26 +5375,34 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>10.1109/MSR.2019.00078</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
+          <t>10.1109/ASE.2019.00099</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>978-1-7281-2508-4</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2643-1572</t>
+        </is>
+      </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/MSR.2019.00078</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8952189</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Design and Development of Software Tool for Code Clone Search, Detection, and Analysis</t>
+          <t>Cross-language clone detection by learning over abstract syntax trees</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>D. Tukaram; U. M. B</t>
+          <t>Perez, Daniel; Chiba, Shigeru</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5408,30 +5412,26 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>10.1109/ICECA.2019.8821928</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>978-1-7281-0167-5</t>
-        </is>
-      </c>
+          <t>10.1109/MSR.2019.00078</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8821928</t>
+          <t>https://doi.org/10.1109/MSR.2019.00078</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Detecting Java Code Clones Based on Bytecode Sequence Alignment</t>
+          <t>Design and Development of Software Tool for Code Clone Search, Detection, and Analysis</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>D. Yu; J. Yang; X. Chen; J. Chen</t>
+          <t>D. Tukaram; U. M. B</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5441,30 +5441,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2019.2898411</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>2169-3536</t>
-        </is>
-      </c>
+          <t>10.1109/ICECA.2019.8821928</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>978-1-7281-0167-5</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8637956</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8821928</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Fast Code Clone Detection Based on Weighted Recursive Autoencoders</t>
+          <t>Detecting Java Code Clones Based on Bytecode Sequence Alignment</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>J. Zeng; K. Ben; X. Li; X. Zhang</t>
+          <t>D. Yu; J. Yang; X. Chen; J. Chen</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2019.2938825</t>
+          <t>10.1109/ACCESS.2019.2898411</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -5485,19 +5485,19 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8822436</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8637956</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Go-clone: Graph-embedding based clone detector for golang</t>
+          <t>Fast Code Clone Detection Based on Weighted Recursive Autoencoders</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Wang, Cong; Gao, Jian; Jiang, Yu; Xing, Zhenchang; Zhang, Huafeng; Yin, Weiliang; Gu, Ming; Sun, Jiaguang</t>
+          <t>J. Zeng; K. Ben; X. Li; X. Zhang</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5507,30 +5507,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>10.1145/3293882.3338996</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>978-1-4503-6224-5</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
+          <t>10.1109/ACCESS.2019.2938825</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2169-3536</t>
+        </is>
+      </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3293882.3338996</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8822436</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Image-Based Clone Code Detection and Visualization</t>
+          <t>Go-clone: Graph-embedding based clone detector for golang</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Y. Wang; D. Liu</t>
+          <t>Wang, Cong; Gao, Jian; Jiang, Yu; Xing, Zhenchang; Zhang, Huafeng; Yin, Weiliang; Gu, Ming; Sun, Jiaguang</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5540,30 +5540,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>10.1109/AIAM48774.2019.00041</t>
+          <t>10.1145/3293882.3338996</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>978-1-7281-4691-1</t>
+          <t>978-1-4503-6224-5</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8950911</t>
+          <t>https://doi.org/10.1145/3293882.3338996</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Improving Clone Detection Precision Using Machine Learning Techniques</t>
+          <t>Image-Based Clone Code Detection and Visualization</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>V. Arammongkolvichai; R. Koschke; C. Ragkhitwetsagul; M. Choetkiertikul; T. Sunetnanta</t>
+          <t>Y. Wang; D. Liu</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5573,34 +5573,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>10.1109/IWESEP49350.2019.00014</t>
+          <t>10.1109/AIAM48774.2019.00041</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>978-1-7281-5590-6</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>2573-2021</t>
-        </is>
-      </c>
+          <t>978-1-7281-4691-1</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8945086</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8950911</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Intelligent token-based code clone detection system for large scale source code</t>
+          <t>Improving Clone Detection Precision Using Machine Learning Techniques</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Elkhail, Abdulrahman Abu; Svacina, Jan; Cerny, Tomas</t>
+          <t>V. Arammongkolvichai; R. Koschke; C. Ragkhitwetsagul; M. Choetkiertikul; T. Sunetnanta</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5610,30 +5606,34 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>10.1145/3338840.3355654</t>
+          <t>10.1109/IWESEP49350.2019.00014</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>978-1-4503-6843-8</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr"/>
+          <t>978-1-7281-5590-6</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2573-2021</t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3338840.3355654</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8945086</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Learning-Based Recursive Aggregation of Abstract Syntax Trees for Code Clone Detection</t>
+          <t>Intelligent token-based code clone detection system for large scale source code</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>L. B√ºch; A. Andrzejak</t>
+          <t>Elkhail, Abdulrahman Abu; Svacina, Jan; Cerny, Tomas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5643,34 +5643,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>10.1109/SANER.2019.8668039</t>
+          <t>10.1145/3338840.3355654</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>978-1-7281-0591-8</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>1534-5351</t>
-        </is>
-      </c>
+          <t>978-1-4503-6843-8</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8668039</t>
+          <t>https://doi.org/10.1145/3338840.3355654</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Neural detection of semantic code clones via tree-based convolution</t>
+          <t>Learning-Based Recursive Aggregation of Abstract Syntax Trees for Code Clone Detection</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Yu, Hao; Lam, Wing; Chen, Long; Li, Ge; Xie, Tao; Wang, Qianxiang</t>
+          <t>L. B√ºch; A. Andrzejak</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5680,26 +5676,34 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>10.1109/ICPC.2019.00021</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+          <t>10.1109/SANER.2019.8668039</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>978-1-7281-0591-8</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1534-5351</t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICPC.2019.00021</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8668039</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>On Precision of Code Clone Detection Tools</t>
+          <t>Neural detection of semantic code clones via tree-based convolution</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>F. Farmahinifarahani; V. Saini; D. Yang; H. Sajnani; C. V. Lopes</t>
+          <t>Yu, Hao; Lam, Wing; Chen, Long; Li, Ge; Xie, Tao; Wang, Qianxiang</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5709,34 +5713,26 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>10.1109/SANER.2019.8668015</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>978-1-7281-0591-8</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>1534-5351</t>
-        </is>
-      </c>
+          <t>10.1109/ICPC.2019.00021</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8668015</t>
+          <t>https://doi.org/10.1109/ICPC.2019.00021</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SootDiff: Bytecode comparison across different java compilers</t>
+          <t>On Precision of Code Clone Detection Tools</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Dann, Andreas; Hermann, Ben; Bodden, Eric</t>
+          <t>F. Farmahinifarahani; V. Saini; D. Yang; H. Sajnani; C. V. Lopes</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5746,30 +5742,34 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>10.1145/3315568.3329966</t>
+          <t>10.1109/SANER.2019.8668015</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>978-1-4503-6720-2</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
+          <t>978-1-7281-0591-8</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1534-5351</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3315568.3329966</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8668015</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TECCD: A Tree Embedding Approach for Code Clone Detection</t>
+          <t>SootDiff: Bytecode comparison across different java compilers</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Y. Gao; Z. Wang; S. Liu; L. Yang; W. Sang; Y. Cai</t>
+          <t>Dann, Andreas; Hermann, Ben; Bodden, Eric</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5779,34 +5779,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>10.1109/ICSME.2019.00025</t>
+          <t>10.1145/3315568.3329966</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>978-1-7281-3094-1</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>2576-3148</t>
-        </is>
-      </c>
+          <t>978-1-4503-6720-2</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8918964</t>
+          <t>https://doi.org/10.1145/3315568.3329966</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Vulnerable Code Clone Detection for Operating System Through Correlation-Induced Learning</t>
+          <t>TECCD: A Tree Embedding Approach for Code Clone Detection</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>H. Shi; R. Wang; Y. Fu; Y. Jiang; J. Dong; K. Tang; J. Sun</t>
+          <t>Y. Gao; Z. Wang; S. Liu; L. Yang; W. Sang; Y. Cai</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5816,63 +5812,67 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>10.1109/TII.2019.2929739</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+          <t>10.1109/ICSME.2019.00025</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>978-1-7281-3094-1</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1941-0050</t>
+          <t>2576-3148</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8765764</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8918964</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A Deep Learning Based Approach to Detect Code Clones</t>
+          <t>Vulnerable Code Clone Detection for Operating System Through Correlation-Induced Learning</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>G. Li; Y. Tang; X. Zhang; B. Yi</t>
+          <t>H. Shi; R. Wang; Y. Fu; Y. Jiang; J. Dong; K. Tang; J. Sun</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>10.1109/ICHCI51889.2020.00078</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>978-1-6654-2316-8</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
+          <t>10.1109/TII.2019.2929739</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1941-0050</t>
+        </is>
+      </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9424815</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8765764</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A Novel Code Stylometry-based Code Clone Detection Strategy</t>
+          <t>A Deep Learning Based Approach to Detect Code Clones</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>W. Dong; Z. Feng; H. Wei; H. Luo</t>
+          <t>G. Li; Y. Tang; X. Zhang; B. Yi</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5882,34 +5882,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>10.1109/IWCMC48107.2020.9148302</t>
+          <t>10.1109/ICHCI51889.2020.00078</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>978-1-7281-3129-0</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>2376-6506</t>
-        </is>
-      </c>
+          <t>978-1-6654-2316-8</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9148302</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9424815</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CPPCD: A Token-Based Approach to Detecting Potential Clones</t>
+          <t>A Novel Code Stylometry-based Code Clone Detection Strategy</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Y. -L. Hung; S. Takada</t>
+          <t>W. Dong; Z. Feng; H. Wei; H. Luo</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5919,34 +5915,34 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>10.1109/IWSC50091.2020.9047636</t>
+          <t>10.1109/IWCMC48107.2020.9148302</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>978-1-7281-6269-0</t>
+          <t>978-1-7281-3129-0</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2572-6587</t>
+          <t>2376-6506</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047636</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9148302</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Clone Detection in Test Code: An Empirical Evaluation</t>
+          <t>CPPCD: A Token-Based Approach to Detecting Potential Clones</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B. van Bladel; S. Demeyer</t>
+          <t>Y. -L. Hung; S. Takada</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5956,34 +5952,34 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>10.1109/SANER48275.2020.9054798</t>
+          <t>10.1109/IWSC50091.2020.9047636</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>978-1-7281-5143-4</t>
+          <t>978-1-7281-6269-0</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1534-5351</t>
+          <t>2572-6587</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9054798</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047636</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Detecting Code Clones with Graph Neural Network and Flow-Augmented Abstract Syntax Tree</t>
+          <t>Clone Detection in Test Code: An Empirical Evaluation</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>W. Wang; G. Li; B. Ma; X. Xia; Z. Jin</t>
+          <t>B. van Bladel; S. Demeyer</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5993,7 +5989,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>10.1109/SANER48275.2020.9054857</t>
+          <t>10.1109/SANER48275.2020.9054798</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6008,19 +6004,19 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9054857</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9054798</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Detection of Similar Functions Through the Use of Dominator Information</t>
+          <t>Detecting Code Clones with Graph Neural Network and Flow-Augmented Abstract Syntax Tree</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A. Sch√§fer; W. Amme; T. S. Heinze</t>
+          <t>W. Wang; G. Li; B. Ma; X. Xia; Z. Jin</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6030,30 +6026,34 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>10.1109/ACSOS-C51401.2020.00057</t>
+          <t>10.1109/SANER48275.2020.9054857</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>978-1-7281-8414-2</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
+          <t>978-1-7281-5143-4</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1534-5351</t>
+        </is>
+      </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9196265</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9054857</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Enhancing Notation-Based Code Cloning Method With an External-Based Identifier Model</t>
+          <t>Detection of Similar Functions Through the Use of Dominator Information</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>N. -T. Chau; S. Jung</t>
+          <t>A. Sch√§fer; W. Amme; T. S. Heinze</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6063,30 +6063,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2020.3016943</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>2169-3536</t>
-        </is>
-      </c>
+          <t>10.1109/ACSOS-C51401.2020.00057</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>978-1-7281-8414-2</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9169649</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9196265</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Evaluating Performance of Clone Detection Tools in Detecting Cloned Cochange Candidates</t>
+          <t>Enhancing Notation-Based Code Cloning Method With an External-Based Identifier Model</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>M. Nadim; M. Mondal; C. K. Roy</t>
+          <t>N. -T. Chau; S. Jung</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6096,34 +6096,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>10.1109/IWSC50091.2020.9047639</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>978-1-7281-6269-0</t>
-        </is>
-      </c>
+          <t>10.1109/ACCESS.2020.3016943</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2572-6587</t>
+          <t>2169-3536</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047639</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9169649</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>From Local to Global Semantic Clone Detection</t>
+          <t>Evaluating Performance of Clone Detection Tools in Detecting Cloned Cochange Candidates</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Y. Yuan; W. Kong; G. Hou; Y. Hu; M. Watanabe; A. Fukuda</t>
+          <t>M. Nadim; M. Mondal; C. K. Roy</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6133,30 +6129,34 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>10.1109/DSA.2019.00012</t>
+          <t>10.1109/IWSC50091.2020.9047639</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>978-1-7281-6057-3</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
+          <t>978-1-7281-6269-0</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2572-6587</t>
+        </is>
+      </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9045812</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047639</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Functional code clone detection with syntax and semantics fusion learning</t>
+          <t>From Local to Global Semantic Clone Detection</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Fang, Chunrong; Liu, Zixi; Shi, Yangyang; Huang, Jeff; Shi, Qingkai</t>
+          <t>Y. Yuan; W. Kong; G. Hou; Y. Hu; M. Watanabe; A. Fukuda</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6166,30 +6166,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>10.1145/3395363.3397362</t>
+          <t>10.1109/DSA.2019.00012</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>978-1-4503-8008-9</t>
+          <t>978-1-7281-6057-3</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3395363.3397362</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9045812</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Modular tree network for source code representation learning</t>
+          <t>Functional code clone detection with syntax and semantics fusion learning</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Wang, Wenhan; Li, Ge; Shen, Sijie; Xia, Xin; Jin, Zhi</t>
+          <t>Fang, Chunrong; Liu, Zixi; Shi, Yangyang; Huang, Jeff; Shi, Qingkai</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6199,30 +6199,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>10.1145/3409331</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>1049-331X</t>
-        </is>
-      </c>
+          <t>10.1145/3395363.3397362</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>978-1-4503-8008-9</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3409331</t>
+          <t>https://doi.org/10.1145/3395363.3397362</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NiCad+: Speeding the Detecting Process of NiCad</t>
+          <t>LibDX: A Cross-Platform and Accurate System to Detect Third-Party Libraries in Binary Code</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>C. Feng; T. Wang; J. Liu; Y. Zhang; K. Xu; Y. Wang</t>
+          <t>W. Tang; P. Luo; J. Fu; D. Zhang</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6232,34 +6232,34 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>10.1109/SOSE49046.2020.00019</t>
+          <t>10.1109/SANER48275.2020.9054845</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>978-1-7281-6972-9</t>
+          <t>978-1-7281-5143-4</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2642-6587</t>
+          <t>1534-5351</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9183401</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9054845</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>On cloud computing infrastructure for existing code-clone detection algorithms</t>
+          <t>Modular tree network for source code representation learning</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Walker, Andrew; Cerny, Tomas</t>
+          <t>Wang, Wenhan; Li, Ge; Shen, Sijie; Xia, Xin; Jin, Zhi</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6269,30 +6269,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>10.1145/3392350.3392351</t>
+          <t>10.1145/3409331</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1559-6915</t>
+          <t>1049-331X</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3392350.3392351</t>
+          <t>https://doi.org/10.1145/3409331</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Open-source tools and benchmarks for code-clone detection: Past, present, and future trends</t>
+          <t>NiCad+: Speeding the Detecting Process of NiCad</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Walker, Andrew; Cerny, Tomas; Song, Eungee</t>
+          <t>C. Feng; T. Wang; J. Liu; Y. Zhang; K. Xu; Y. Wang</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6302,30 +6302,34 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>10.1145/3381307.3381310</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
+          <t>10.1109/SOSE49046.2020.00019</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>978-1-7281-6972-9</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1559-6915</t>
+          <t>2642-6587</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3381307.3381310</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9183401</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Program Slice Based Vulnerable Code Clone Detection</t>
+          <t>On cloud computing infrastructure for existing code-clone detection algorithms</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>X. Song; A. Yu; H. Yu; S. Liu; X. Bai; L. Cai; D. Meng</t>
+          <t>Walker, Andrew; Cerny, Tomas</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6335,34 +6339,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>10.1109/TrustCom50675.2020.00049</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>978-1-6654-0392-4</t>
-        </is>
-      </c>
+          <t>10.1145/3392350.3392351</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2324-9013</t>
+          <t>1559-6915</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9342999</t>
+          <t>https://doi.org/10.1145/3392350.3392351</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Robust App Clone Detection Based on Similarity of UI Structure</t>
+          <t>Open-source tools and benchmarks for code-clone detection: Past, present, and future trends</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Y. Hu; G. Xu; B. Zhang; K. Lai; G. Xu; M. Zhang</t>
+          <t>Walker, Andrew; Cerny, Tomas; Song, Eungee</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6372,30 +6372,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2020.2988400</t>
+          <t>10.1145/3381307.3381310</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2169-3536</t>
+          <t>1559-6915</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9069227</t>
+          <t>https://doi.org/10.1145/3381307.3381310</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SAGA: Efficient and Large-Scale Detection of Near-Miss Clones with GPU Acceleration</t>
+          <t>Program Slice Based Vulnerable Code Clone Detection</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>G. Li; Y. Wu; C. K. Roy; J. Sun; X. Peng; N. Zhan; B. Hu; J. Ma</t>
+          <t>X. Song; A. Yu; H. Yu; S. Liu; X. Bai; L. Cai; D. Meng</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6405,34 +6405,34 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>10.1109/SANER48275.2020.9054832</t>
+          <t>10.1109/TrustCom50675.2020.00049</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>978-1-7281-5143-4</t>
+          <t>978-1-6654-0392-4</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1534-5351</t>
+          <t>2324-9013</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9054832</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9342999</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SLACC: Simion-based Language Agnostic Code Clones</t>
+          <t>Robust App Clone Detection Based on Similarity of UI Structure</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>G. Mathew; C. Parnin; K. T. Stolee</t>
+          <t>Y. Hu; G. Xu; B. Zhang; K. Lai; G. Xu; M. Zhang</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6440,32 +6440,32 @@
           <t>2020</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>978-1-4503-7121-6</t>
-        </is>
-      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2020.2988400</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1558-1225</t>
+          <t>2169-3536</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9283951</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9069227</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Semantic Code Clone Detection Via Event Embedding Tree and GAT Network</t>
+          <t>SAGA: Efficient and Large-Scale Detection of Near-Miss Clones with GPU Acceleration</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>B. Li; C. Ye; S. Guan; H. Zhou</t>
+          <t>G. Li; Y. Wu; C. K. Roy; J. Sun; X. Peng; N. Zhan; B. Hu; J. Ma</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6475,30 +6475,34 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>10.1109/QRS51102.2020.00057</t>
+          <t>10.1109/SANER48275.2020.9054832</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>978-1-7281-8913-0</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr"/>
+          <t>978-1-7281-5143-4</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1534-5351</t>
+        </is>
+      </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9282778</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9054832</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SemanticCloneBench: A Semantic Code Clone Benchmark using Crowd-Source Knowledge</t>
+          <t>SLACC: Simion-based Language Agnostic Code Clones</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>F. Al-Omari; C. K. Roy; T. Chen</t>
+          <t>G. Mathew; C. Parnin; K. T. Stolee</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6506,36 +6510,32 @@
           <t>2020</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>10.1109/IWSC50091.2020.9047643</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>978-1-7281-6269-0</t>
+          <t>978-1-4503-7121-6</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2572-6587</t>
+          <t>1558-1225</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047643</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9283951</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sia-RAE: A Siamese Network based on Recursive AutoEncoder for Effective Clone Detection</t>
+          <t>Semantic Code Clone Detection Via Event Embedding Tree and GAT Network</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>C. Feng; T. Wang; Y. Yu; Y. Zhang; Y. Zhang; H. Wang</t>
+          <t>B. Li; C. Ye; S. Guan; H. Zhou</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6545,34 +6545,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>10.1109/APSEC51365.2020.00032</t>
+          <t>10.1109/QRS51102.2020.00057</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>978-1-7281-9553-7</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>2640-0715</t>
-        </is>
-      </c>
+          <t>978-1-7281-8913-0</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9359270</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9282778</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SrcClone: Detecting code clones via decompositional slicing</t>
+          <t>SemanticCloneBench: A Semantic Code Clone Benchmark using Crowd-Source Knowledge</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Alomari, Hakam W.; Stephan, Matthew</t>
+          <t>F. Al-Omari; C. K. Roy; T. Chen</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6582,30 +6578,34 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>10.1145/3387904.3389271</t>
+          <t>10.1109/IWSC50091.2020.9047643</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>978-1-4503-7958-8</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr"/>
+          <t>978-1-7281-6269-0</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2572-6587</t>
+        </is>
+      </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3387904.3389271</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047643</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Twin-Finder: Integrated Reasoning Engine for Pointer-Related Code Clone Detection</t>
+          <t>Sia-RAE: A Siamese Network based on Recursive AutoEncoder for Effective Clone Detection</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>H. Xue; Y. Mei; K. Gogineni; G. Venkataramani; T. Lan</t>
+          <t>C. Feng; T. Wang; Y. Yu; Y. Zhang; Y. Zhang; H. Wang</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6615,34 +6615,34 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>10.1109/IWSC50091.2020.9047638</t>
+          <t>10.1109/APSEC51365.2020.00032</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>978-1-7281-6269-0</t>
+          <t>978-1-7281-9553-7</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2572-6587</t>
+          <t>2640-0715</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047638</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9359270</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>VGRAPH: A Robust Vulnerable Code Clone Detection System Using Code Property Triplets</t>
+          <t>SrcClone: Detecting code clones via decompositional slicing</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>B. Bowman; H. H. Huang</t>
+          <t>Alomari, Hakam W.; Stephan, Matthew</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6652,96 +6652,100 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>10.1109/EuroSP48549.2020.00012</t>
+          <t>10.1145/3387904.3389271</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>978-1-7281-5087-1</t>
+          <t>978-1-4503-7958-8</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9230372</t>
+          <t>https://doi.org/10.1145/3387904.3389271</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A Review on Distance Measure Formula for Enhancing Match Detection Process of Generic Code Clone Detection Model in Java Application</t>
+          <t>Twin-Finder: Integrated Reasoning Engine for Pointer-Related Code Clone Detection</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>N. A. Abdullah; M. A. M. Hamza; A. -F. M. Ali</t>
+          <t>H. Xue; Y. Mei; K. Gogineni; G. Venkataramani; T. Lan</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>10.1109/ICSECS52883.2021.00132</t>
+          <t>10.1109/IWSC50091.2020.9047638</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>978-1-6654-1407-4</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
+          <t>978-1-7281-6269-0</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2572-6587</t>
+        </is>
+      </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9536991</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9047638</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A Review on Distance Measure Formula for Enhancing Match Detection Process of Generic Code Clone Detection Model in Java Application</t>
+          <t>VGRAPH: A Robust Vulnerable Code Clone Detection System Using Code Property Triplets</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>N. A. Abdullah; M. Azwan Mohamad Hamza; A. -F. M. Ali</t>
+          <t>B. Bowman; H. H. Huang</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>10.1109/ICSECS52883.2021.00058</t>
+          <t>10.1109/EuroSP48549.2020.00012</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>978-1-6654-1407-4</t>
+          <t>978-1-7281-5087-1</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9537034</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9230372</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A Semantics-Based Hybrid Approach on Binary Code Similarity Comparison</t>
+          <t>A Review on Distance Measure Formula for Enhancing Match Detection Process of Generic Code Clone Detection Model in Java Application</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Y. Hu; H. Wang; Y. Zhang; B. Li; D. Gu</t>
+          <t>N. A. Abdullah; M. A. M. Hamza; A. -F. M. Ali</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6751,30 +6755,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>10.1109/TSE.2019.2918326</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>1939-3520</t>
-        </is>
-      </c>
+          <t>10.1109/ICSECS52883.2021.00132</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>978-1-6654-1407-4</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8721093</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9536991</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A Survey of Software Clone Detection From Security Perspective</t>
+          <t>A Review on Distance Measure Formula for Enhancing Match Detection Process of Generic Code Clone Detection Model in Java Application</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>H. Zhang; K. Sakurai</t>
+          <t>N. A. Abdullah; M. Azwan Mohamad Hamza; A. -F. M. Ali</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6784,30 +6788,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2021.3065872</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>2169-3536</t>
-        </is>
-      </c>
+          <t>10.1109/ICSECS52883.2021.00058</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>978-1-6654-1407-4</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9378511</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9537034</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A code clone detection algorithm based on graph convolution network with AST tree edge</t>
+          <t>A Semantics-Based Hybrid Approach on Binary Code Similarity Comparison</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Z. Lu; R. Li; H. Hu; W. -a. Zhou</t>
+          <t>Y. Hu; H. Wang; Y. Zhang; B. Li; D. Gu</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6817,34 +6821,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>10.1109/QRS-C55045.2021.00156</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>978-1-6654-7836-6</t>
-        </is>
-      </c>
+          <t>10.1109/TSE.2019.2918326</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2693-9371</t>
+          <t>1939-3520</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9741968</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8721093</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>AST-path Based Compare-Aggregate Network for Code Clone Detection</t>
+          <t>A Survey of Software Clone Detection From Security Perspective</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>H. Liang; L. Ai</t>
+          <t>H. Zhang; K. Sakurai</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6854,34 +6854,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>10.1109/IJCNN52387.2021.9534099</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>978-1-6654-3900-8</t>
-        </is>
-      </c>
+          <t>10.1109/ACCESS.2021.3065872</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2161-4407</t>
+          <t>2169-3536</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9534099</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9378511</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>An Effective Semantic Code Clone Detection Framework Using Pairwise Feature Fusion</t>
+          <t>A code clone detection algorithm based on graph convolution network with AST tree edge</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A. Sheneamer; S. Roy; J. Kalita</t>
+          <t>Z. Lu; R. Li; H. Hu; W. -a. Zhou</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6891,30 +6887,34 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2021.3079156</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
+          <t>10.1109/QRS-C55045.2021.00156</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>978-1-6654-7836-6</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2169-3536</t>
+          <t>2693-9371</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9427518</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9741968</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CCEyes: An Effective Tool for Code Clone Detection on Large-Scale Open Source Repositories</t>
+          <t>AST-path Based Compare-Aggregate Network for Code Clone Detection</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Y. Zhang; T. Wang</t>
+          <t>H. Liang; L. Ai</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6924,30 +6924,34 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>10.1109/ICICSE52190.2021.9404141</t>
+          <t>10.1109/IJCNN52387.2021.9534099</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>978-1-6654-1919-2</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
+          <t>978-1-6654-3900-8</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2161-4407</t>
+        </is>
+      </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9404141</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9534099</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CCGraph: A PDG-Based code clone detector with approximate graph matching</t>
+          <t>An Effective Semantic Code Clone Detection Framework Using Pairwise Feature Fusion</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Zou, Yue; Ban, Bihuan; Xue, Yinxing; Xu, Yun</t>
+          <t>A. Sheneamer; S. Roy; J. Kalita</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6957,30 +6961,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>10.1145/3324884.3416541</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>978-1-4503-6768-4</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr"/>
+          <t>10.1109/ACCESS.2021.3079156</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2169-3536</t>
+        </is>
+      </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3324884.3416541</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9427518</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Code Similarity Detection Based on Siamese Network</t>
+          <t>CCEyes: An Effective Tool for Code Clone Detection on Large-Scale Open Source Repositories</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Y. Wu; W. Wang</t>
+          <t>Y. Zhang; T. Wang</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6990,7 +6994,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>10.1109/ICICSE52190.2021.9404110</t>
+          <t>10.1109/ICICSE52190.2021.9404141</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7001,19 +7005,19 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9404110</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9404141</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FCCA: Hybrid Code Representation for Functional Clone Detection Using Attention Networks</t>
+          <t>CCGraph: A PDG-Based code clone detector with approximate graph matching</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>W. Hua; Y. Sui; Y. Wan; G. Liu; G. Xu</t>
+          <t>Zou, Yue; Ban, Bihuan; Xue, Yinxing; Xu, Yun</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7023,30 +7027,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>10.1109/TR.2020.3001918</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>1558-1721</t>
-        </is>
-      </c>
+          <t>10.1145/3324884.3416541</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>978-1-4503-6768-4</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9146274</t>
+          <t>https://doi.org/10.1145/3324884.3416541</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Finding repeated strings in code repositories and its applications to code-clone detection</t>
+          <t>Code Similarity Detection Based on Siamese Network</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Y. Yamagata; F. Herv√©; Y. Fujiwara; K. Inoue</t>
+          <t>Y. Wu; W. Wang</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7056,34 +7060,30 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>10.1109/APSEC53868.2021.00057</t>
+          <t>10.1109/ICICSE52190.2021.9404110</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>978-1-6654-3784-4</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>2640-0715</t>
-        </is>
-      </c>
+          <t>978-1-6654-1919-2</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9712025</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9404110</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Influence of Contrastive Learning on Source Code Plagiarism Detection through Recursive Neural Networks</t>
+          <t>FCCA: Hybrid Code Representation for Functional Clone Detection Using Attention Networks</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>M. A. Fokam; R. Ajoodha</t>
+          <t>W. Hua; Y. Sui; Y. Wan; G. Liu; G. Xu</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7093,30 +7093,30 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>10.1109/IMITEC52926.2021.9714688</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>978-1-6654-1749-5</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr"/>
+          <t>10.1109/TR.2020.3001918</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1558-1721</t>
+        </is>
+      </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9714688</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9146274</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Learn To Align: A Code Alignment Network For Code Clone Detection</t>
+          <t>Finding repeated strings in code repositories and its applications to code-clone detection</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>A. Zhang; K. Liu; L. Fang; Q. Liu; X. Yun; S. Ji</t>
+          <t>Y. Yamagata; F. Herv√©; Y. Fujiwara; K. Inoue</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>10.1109/APSEC53868.2021.00008</t>
+          <t>10.1109/APSEC53868.2021.00057</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -7141,19 +7141,19 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9712141</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9712025</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Multi-threshold token-based code clone detection</t>
+          <t>Influence of Contrastive Learning on Source Code Plagiarism Detection through Recursive Neural Networks</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Y. Golubev; V. Poletansky; N. Povarov; T. Bryksin</t>
+          <t>M. A. Fokam; R. Ajoodha</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7163,34 +7163,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>10.1109/SANER50967.2021.00053</t>
+          <t>10.1109/IMITEC52926.2021.9714688</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>978-1-7281-9630-5</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>1534-5351</t>
-        </is>
-      </c>
+          <t>978-1-6654-1749-5</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9426013</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9714688</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>NIL: Large-scale detection of large-variance clones</t>
+          <t>Learn To Align: A Code Alignment Network For Code Clone Detection</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Nakagawa, Tasuku; Higo, Yoshiki; Kusumoto, Shinji</t>
+          <t>A. Zhang; K. Liu; L. Fang; Q. Liu; X. Yun; S. Ji</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7200,30 +7196,34 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>10.1145/3468264.3468564</t>
+          <t>10.1109/APSEC53868.2021.00008</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>978-1-4503-8562-6</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
+          <t>978-1-6654-3784-4</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2640-0715</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3468264.3468564</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9712141</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SCCD-GAN: An Enhanced Semantic Code Clone Detection Model Using GAN</t>
+          <t>Multi-threshold token-based code clone detection</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>K. Xu; Y. Liu</t>
+          <t>Y. Golubev; V. Poletansky; N. Povarov; T. Bryksin</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7233,30 +7233,34 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>10.1109/ICECE54449.2021.9674552</t>
+          <t>10.1109/SANER50967.2021.00053</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>978-1-7281-9422-6</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr"/>
+          <t>978-1-7281-9630-5</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1534-5351</t>
+        </is>
+      </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9674552</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9426013</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SCDetector: Software functional clone detection based on semantic tokens analysis</t>
+          <t>NIL: Large-scale detection of large-variance clones</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Wu, Yueming; Zou, Deqing; Dou, Shihan; Yang, Siru; Yang, Wei; Cheng, Feng; Liang, Hong; Jin, Hai</t>
+          <t>Nakagawa, Tasuku; Higo, Yoshiki; Kusumoto, Shinji</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7266,30 +7270,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>10.1145/3324884.3416562</t>
+          <t>10.1145/3468264.3468564</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>978-1-4503-6768-4</t>
+          <t>978-1-4503-8562-6</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3324884.3416562</t>
+          <t>https://doi.org/10.1145/3468264.3468564</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Semantic based Cross-Language Clone Related Bug Detection</t>
+          <t>SCCD-GAN: An Enhanced Semantic Code Clone Detection Model Using GAN</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Z. Chen</t>
+          <t>K. Xu; Y. Liu</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7299,30 +7303,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>10.1109/AINIT54228.2021.00101</t>
+          <t>10.1109/ICECE54449.2021.9674552</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>978-1-6654-1296-4</t>
+          <t>978-1-7281-9422-6</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9725021</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9674552</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Stubber: Compiling Source Code into Bytecode without Dependencies for Java Code Clone Detection</t>
+          <t>SCDetector: Software functional clone detection based on semantic tokens analysis</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A. Sch√§fer; W. Amme; T. S. Heinze</t>
+          <t>Wu, Yueming; Zou, Deqing; Dou, Shihan; Yang, Siru; Yang, Wei; Cheng, Feng; Liang, Hong; Jin, Hai</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7332,34 +7336,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>10.1109/IWSC53727.2021.00011</t>
+          <t>10.1145/3324884.3416562</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>978-1-6654-4287-9</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>2572-6587</t>
-        </is>
-      </c>
+          <t>978-1-4503-6768-4</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9679787</t>
+          <t>https://doi.org/10.1145/3324884.3416562</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Type-2 Code Clone Detection for Dockerfiles</t>
+          <t>Semantic based Cross-Language Clone Related Bug Detection</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>T. Tsuru; T. Nakagawa; S. Matsumoto; Y. Higo; S. Kusumoto</t>
+          <t>Z. Chen</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7369,34 +7369,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>10.1109/IWSC53727.2021.00007</t>
+          <t>10.1109/AINIT54228.2021.00101</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>978-1-6654-4287-9</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>2572-6587</t>
-        </is>
-      </c>
+          <t>978-1-6654-1296-4</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9679789</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9725021</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>VIVA: Binary Level Vulnerability Identification via Partial Signature</t>
+          <t>Stubber: Compiling Source Code into Bytecode without Dependencies for Java Code Clone Detection</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Y. Xiao; Z. Xu; W. Zhang; C. Yu; L. Liu; W. Zou; Z. Yuan; Y. Liu; A. Piao; W. Huo</t>
+          <t>A. Sch√§fer; W. Amme; T. S. Heinze</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7406,34 +7402,34 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>10.1109/SANER50967.2021.00028</t>
+          <t>10.1109/IWSC53727.2021.00011</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>978-1-7281-9630-5</t>
+          <t>978-1-6654-4287-9</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>1534-5351</t>
+          <t>2572-6587</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9425910</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9679787</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>What you see is what it means! Semantic representation learning of code based on visualization and transfer learning</t>
+          <t>Type-2 Code Clone Detection for Dockerfiles</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Keller, Patrick; Kaboré, Abdoul Kader; Plein, Laura; Klein, Jacques; Le Traon, Yves; Bissyandé, Tegawendé F.</t>
+          <t>T. Tsuru; T. Nakagawa; S. Matsumoto; Y. Higo; S. Kusumoto</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7443,30 +7439,34 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>10.1145/3485135</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
+          <t>10.1109/IWSC53727.2021.00007</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>978-1-6654-4287-9</t>
+        </is>
+      </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>1049-331X</t>
+          <t>2572-6587</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3485135</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9679789</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>You Look so Different: Finding Structural Clones and Subclones in Java Source Code</t>
+          <t>VIVA: Binary Level Vulnerability Identification via Partial Signature</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>W. Amme; T. S. Heinze; A. Sch√§fer</t>
+          <t>Y. Xiao; Z. Xu; W. Zhang; C. Yu; L. Liu; W. Zou; Z. Yuan; Y. Liu; A. Piao; W. Huo</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7476,104 +7476,104 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>10.1109/ICSME52107.2021.00013</t>
+          <t>10.1109/SANER50967.2021.00028</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>978-1-6654-2882-8</t>
+          <t>978-1-7281-9630-5</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2576-3148</t>
+          <t>1534-5351</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9609181</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9425910</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A Comparative Analysis of Clone Detection Techniques on SemanticCloneBench</t>
+          <t>What you see is what it means! Semantic representation learning of code based on visualization and transfer learning</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>S. M. Rabbani; N. Ahmad Gulzar; S. Arshad; S. Abid; S. Shamail</t>
+          <t>Keller, Patrick; Kaboré, Abdoul Kader; Plein, Laura; Klein, Jacques; Le Traon, Yves; Bissyandé, Tegawendé F.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>10.1109/IWSC55060.2022.00011</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>978-1-6654-8447-3</t>
-        </is>
-      </c>
+          <t>10.1145/3485135</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2572-6587</t>
+          <t>1049-331X</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9978250</t>
+          <t>https://doi.org/10.1145/3485135</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AYAT: A Lightweight and Efficient Code Clone Detection Technique</t>
+          <t>You Look so Different: Finding Structural Clones and Subclones in Java Source Code</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Y. Giani; L. Ping; S. A. Shah</t>
+          <t>W. Amme; T. S. Heinze; A. Sch√§fer</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>10.1109/ACCC58361.2022.00015</t>
+          <t>10.1109/ICSME52107.2021.00013</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>979-8-3503-3295-7</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr"/>
+          <t>978-1-6654-2882-8</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2576-3148</t>
+        </is>
+      </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10071576</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9609181</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>An Experimental Comparison of Clone Detection Techniques using Java Bytecode</t>
+          <t>A Comparative Analysis of Clone Detection Techniques on SemanticCloneBench</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>J. -G. Schneider; S. U. Lee</t>
+          <t>S. M. Rabbani; N. Ahmad Gulzar; S. Arshad; S. Abid; S. Shamail</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7583,34 +7583,34 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>10.1109/APSEC57359.2022.00026</t>
+          <t>10.1109/IWSC55060.2022.00011</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>978-1-6654-5537-4</t>
+          <t>978-1-6654-8447-3</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2640-0715</t>
+          <t>2572-6587</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10043223</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9978250</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Can neural clone detection generalize to unseen functionalities?</t>
+          <t>AYAT: A Lightweight and Efficient Code Clone Detection Technique</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Liu, Chenyao; Lin, Zeqi; Lou, Jian-Guang; Wen, Lijie; Zhang, Dongmei</t>
+          <t>Y. Giani; L. Ping; S. A. Shah</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7620,30 +7620,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>10.1109/ASE51524.2021.9678907</t>
+          <t>10.1109/ACCC58361.2022.00015</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>978-1-66540-337-5</t>
+          <t>979-8-3503-3295-7</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ASE51524.2021.9678907</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10071576</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Clone Detection Method Selection Based on Bandit Algorithm: a Preliminary Analysis</t>
+          <t>An Experimental Comparison of Clone Detection Techniques using Java Bytecode</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>T. Tabo; T. Kudo; M. Tsunoda; A. Tahir; K. E. Bennin; K. Toda; K. Nakasai; A. Monden</t>
+          <t>J. -G. Schneider; S. U. Lee</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7653,34 +7653,34 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>10.1109/IWSC55060.2022.00017</t>
+          <t>10.1109/APSEC57359.2022.00026</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>978-1-6654-8447-3</t>
+          <t>978-1-6654-5537-4</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2572-6587</t>
+          <t>2640-0715</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9978173</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10043223</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Code clone detection based on doc2vec model and bagging</t>
+          <t>Can neural clone detection generalize to unseen functionalities?</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Huang, Jun</t>
+          <t>Liu, Chenyao; Lin, Zeqi; Lou, Jian-Guang; Wen, Lijie; Zhang, Dongmei</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7690,30 +7690,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>10.1145/3548608.3559280</t>
+          <t>10.1109/ASE51524.2021.9678907</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>978-1-4503-9717-9</t>
+          <t>978-1-66540-337-5</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3548608.3559280</t>
+          <t>https://doi.org/10.1109/ASE51524.2021.9678907</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Code clone detection based on event embedding and event dependency</t>
+          <t>Clone Detection Method Selection Based on Bandit Algorithm: a Preliminary Analysis</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Huang, Cheng; Zhou, Hui; Ye, Chunyang; Li, Bingzhuo</t>
+          <t>T. Tabo; T. Kudo; M. Tsunoda; A. Tahir; K. E. Bennin; K. Toda; K. Nakasai; A. Monden</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7723,30 +7723,34 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>10.1145/3545258.3545277</t>
+          <t>10.1109/IWSC55060.2022.00017</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>978-1-4503-9780-3</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr"/>
+          <t>978-1-6654-8447-3</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2572-6587</t>
+        </is>
+      </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3545258.3545277</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9978173</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CodeBERT for Code Clone Detection: A Replication Study</t>
+          <t>Code clone detection based on doc2vec model and bagging</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>S. Arshad; S. Abid; S. Shamail</t>
+          <t>Huang, Jun</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7756,34 +7760,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>10.1109/IWSC55060.2022.00015</t>
+          <t>10.1145/3548608.3559280</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>978-1-6654-8447-3</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>2572-6587</t>
-        </is>
-      </c>
+          <t>978-1-4503-9717-9</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9978260</t>
+          <t>https://doi.org/10.1145/3548608.3559280</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Experiments on Code Clone Detection and Machine Learning</t>
+          <t>Code clone detection based on event embedding and event dependency</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>A. Sch√§fer; W. Amme; T. S. Heinze</t>
+          <t>Huang, Cheng; Zhou, Hui; Ye, Chunyang; Li, Bingzhuo</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7793,34 +7793,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>10.1109/IWSC55060.2022.00016</t>
+          <t>10.1145/3545258.3545277</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>978-1-6654-8447-3</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>2572-6587</t>
-        </is>
-      </c>
+          <t>978-1-4503-9780-3</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9978218</t>
+          <t>https://doi.org/10.1145/3545258.3545277</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Improving Code Clone Detection Accuracy and Efficiency based on Code Complexity Analysis</t>
+          <t>CodeBERT for Code Clone Detection: A Replication Study</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>H. Jin; Z. Cui; S. Liu; L. Zheng</t>
+          <t>S. Arshad; S. Abid; S. Shamail</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7830,34 +7826,34 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>10.1109/DSA56465.2022.00017</t>
+          <t>10.1109/IWSC55060.2022.00015</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>978-1-6654-8877-8</t>
+          <t>978-1-6654-8447-3</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2767-6684</t>
+          <t>2572-6587</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9914397</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9978260</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Low-Complexity Code Clone Detection using Graph-based Neural Networks</t>
+          <t>Experiments on Code Clone Detection and Machine Learning</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>H. Liu; H. Zhao; C. Han; L. Hou</t>
+          <t>A. Sch√§fer; W. Amme; T. S. Heinze</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7867,30 +7863,34 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>10.1109/MSN57253.2022.00129</t>
+          <t>10.1109/IWSC55060.2022.00016</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>978-1-6654-6457-4</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr"/>
+          <t>978-1-6654-8447-3</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2572-6587</t>
+        </is>
+      </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10076726</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9978218</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MSCCD: Grammar pluggable clone detection based on ANTLR parser generation</t>
+          <t>Improving Code Clone Detection Accuracy and Efficiency based on Code Complexity Analysis</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Zhu, Wenqing; Yoshida, Norihiro; Kamiya, Toshihiro; Choi, Eunjong; Takada, Hiroaki</t>
+          <t>H. Jin; Z. Cui; S. Liu; L. Zheng</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7900,30 +7900,34 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>10.1145/3524610.3529161</t>
+          <t>10.1109/DSA56465.2022.00017</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>978-1-4503-9298-3</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr"/>
+          <t>978-1-6654-8877-8</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2767-6684</t>
+        </is>
+      </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3524610.3529161</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9914397</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Modeling Functional Similarity in Source Code With Graph-Based Siamese Networks</t>
+          <t>Low-Complexity Code Clone Detection using Graph-based Neural Networks</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>N. Mehrotra; N. Agarwal; P. Gupta; S. Anand; D. Lo; R. Purandare</t>
+          <t>H. Liu; H. Zhao; C. Han; L. Hou</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7933,30 +7937,30 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>10.1109/TSE.2021.3105556</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>1939-3520</t>
-        </is>
-      </c>
+          <t>10.1109/MSN57253.2022.00129</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>978-1-6654-6457-4</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9516896</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10076726</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Studying Duplicate Logging Statements and Their Relationships With Code Clones</t>
+          <t>MSCCD: Grammar pluggable clone detection based on ANTLR parser generation</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Z. Li; T. -H. Chen; J. Yang; W. Shang</t>
+          <t>Zhu, Wenqing; Yoshida, Norihiro; Kamiya, Toshihiro; Choi, Eunjong; Takada, Hiroaki</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7966,30 +7970,30 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>10.1109/TSE.2021.3060918</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>1939-3520</t>
-        </is>
-      </c>
+          <t>10.1145/3524610.3529161</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>978-1-4503-9298-3</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9360483</t>
+          <t>https://doi.org/10.1145/3524610.3529161</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Towards robustness of deep program processing Models—Detection, estimation, and enhancement</t>
+          <t>Modeling Functional Similarity in Source Code With Graph-Based Siamese Networks</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Zhang, Huangzhao; Fu, Zhiyi; Li, Ge; Ma, Lei; Zhao, Zhehao; Yang, Hua’an; Sun, Yizhe; Liu, Yang; Jin, Zhi</t>
+          <t>N. Mehrotra; N. Agarwal; P. Gupta; S. Anand; D. Lo; R. Purandare</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7999,30 +8003,30 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>10.1145/3511887</t>
+          <t>10.1109/TSE.2021.3105556</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>1049-331X</t>
+          <t>1939-3520</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3511887</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9516896</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Zero-shot program representation learning</t>
+          <t>Studying Duplicate Logging Statements and Their Relationships With Code Clones</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cui, Nan; Jiang, Yuze; Gu, Xiaodong; Shen, Beijun</t>
+          <t>Z. Li; T. -H. Chen; J. Yang; W. Shang</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8032,96 +8036,96 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>10.1145/3524610.3527888</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>978-1-4503-9298-3</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr"/>
+          <t>10.1109/TSE.2021.3060918</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1939-3520</t>
+        </is>
+      </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3524610.3527888</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9360483</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A study on the application of graph neural network in code clone detection: Improving the performance of code clone detection through graph neural networks and attention mechanisms</t>
+          <t>Towards robustness of deep program processing Models—Detection, estimation, and enhancement</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Dai, Linfeng</t>
+          <t>Zhang, Huangzhao; Fu, Zhiyi; Li, Ge; Ma, Lei; Zhao, Zhehao; Yang, Hua’an; Sun, Yizhe; Liu, Yang; Jin, Zhi</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>10.1145/3605801.3605834</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>9798400700620</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr"/>
+          <t>10.1145/3511887</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1049-331X</t>
+        </is>
+      </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3605801.3605834</t>
+          <t>https://doi.org/10.1145/3511887</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>An empirical comparison on the results of different clone detection setups for C-based projects</t>
+          <t>Zero-shot program representation learning</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Zhou, Yan; Chen, Jinfu; Shi, Yong; Chen, Boyuan; Jiang, Zhen Ming (Jack)</t>
+          <t>Cui, Nan; Jiang, Yuze; Gu, Xiaodong; Shen, Beijun</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>10.1109/ICSE-SEIP58684.2023.00012</t>
+          <t>10.1145/3524610.3527888</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>9798350300376</t>
+          <t>978-1-4503-9298-3</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICSE-SEIP58684.2023.00012</t>
+          <t>https://doi.org/10.1145/3524610.3527888</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>AyatDroid: A Lightweight Code Cloning Technique Using Different Static Features</t>
+          <t>A study on the application of graph neural network in code clone detection: Improving the performance of code clone detection through graph neural networks and attention mechanisms</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Y. Glani; L. Ping; K. Lin; S. A. Shah</t>
+          <t>Dai, Linfeng</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8131,30 +8135,30 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>10.1109/SEAI59139.2023.10217577</t>
+          <t>10.1145/3605801.3605834</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>979-8-3503-3795-2</t>
+          <t>9798400700620</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10217577</t>
+          <t>https://doi.org/10.1145/3605801.3605834</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Code Clone Detection Using Boosting Algorithms</t>
+          <t>An empirical comparison on the results of different clone detection setups for C-based projects</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>M. V. Thanoshan; K. Banujan; B. T. G. S. Kumara; S. Prasanth; Z. Li; I. Paik</t>
+          <t>Zhou, Yan; Chen, Jinfu; Shi, Yong; Chen, Boyuan; Jiang, Zhen Ming (Jack)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8164,30 +8168,30 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>10.1109/ICARC57651.2023.10145638</t>
+          <t>10.1109/ICSE-SEIP58684.2023.00012</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>979-8-3503-4737-1</t>
+          <t>9798350300376</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10145638</t>
+          <t>https://doi.org/10.1109/ICSE-SEIP58684.2023.00012</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Code2Img: Tree-Based Image Transformation for Scalable Code Clone Detection</t>
+          <t>AyatDroid: A Lightweight Code Cloning Technique Using Different Static Features</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Y. Hu; Y. Fang; Y. Sun; Y. Jia; Y. Wu; D. Zou; H. Jin</t>
+          <t>Y. Glani; L. Ping; K. Lin; S. A. Shah</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8197,30 +8201,30 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>10.1109/TSE.2023.3295801</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>1939-3520</t>
-        </is>
-      </c>
+          <t>10.1109/SEAI59139.2023.10217577</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>979-8-3503-3795-2</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10185183</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10217577</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Comparison and evaluation of clone detection techniques with different code representations</t>
+          <t>Code Clone Detection Using Boosting Algorithms</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Wang, Yuekun; Ye, Yuhang; Wu, Yueming; Zhang, Weiwei; Xue, Yinxing; Liu, Yang</t>
+          <t>M. V. Thanoshan; K. Banujan; B. T. G. S. Kumara; S. Prasanth; Z. Li; I. Paik</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8230,30 +8234,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>10.1109/ICSE48619.2023.00039</t>
+          <t>10.1109/ICARC57651.2023.10145638</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>978-1-66545-701-9</t>
+          <t>979-8-3503-4737-1</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICSE48619.2023.00039</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10145638</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Detecting semantic code clones by building AST-Based markov chains model</t>
+          <t>Code2Img: Tree-Based Image Transformation for Scalable Code Clone Detection</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Wu, Yueming; Feng, Siyue; Zou, Deqing; Jin, Hai</t>
+          <t>Y. Hu; Y. Fang; Y. Sun; Y. Jia; Y. Wu; D. Zou; H. Jin</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8263,30 +8267,30 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>10.1145/3551349.3560426</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>978-1-4503-9475-8</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr"/>
+          <t>10.1109/TSE.2023.3295801</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1939-3520</t>
+        </is>
+      </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3551349.3560426</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10185183</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Determining the Best Weightage Feature in Parameterization Process of GCCD Model for Clone Detection in C-Based Applications</t>
+          <t>Comparison and evaluation of clone detection techniques with different code representations</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>N. S. Zaidi; A. F. Mubarak-Ali; A. S. Fakhrudin; R. N. Romli</t>
+          <t>Wang, Yuekun; Ye, Yuhang; Wu, Yueming; Zhang, Weiwei; Xue, Yinxing; Liu, Yang</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8296,30 +8300,30 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>10.1109/ICSECS58457.2023.10256395</t>
+          <t>10.1109/ICSE48619.2023.00039</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>979-8-3503-1093-1</t>
+          <t>978-1-66545-701-9</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10256395</t>
+          <t>https://doi.org/10.1109/ICSE48619.2023.00039</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Fine-grained code clone detection with block-based splitting of abstract syntax tree</t>
+          <t>Detecting semantic code clones by building AST-Based markov chains model</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Hu, Tiancheng; Xu, Zijing; Fang, Yilin; Wu, Yueming; Yuan, Bin; Zou, Deqing; Jin, Hai</t>
+          <t>Wu, Yueming; Feng, Siyue; Zou, Deqing; Jin, Hai</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8329,30 +8333,30 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>10.1145/3597926.3598040</t>
+          <t>10.1145/3551349.3560426</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>9798400702211</t>
+          <t>978-1-4503-9475-8</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3597926.3598040</t>
+          <t>https://doi.org/10.1145/3551349.3560426</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Generalizability of code clone detection on CodeBERT</t>
+          <t>Determining the Best Weightage Feature in Parameterization Process of GCCD Model for Clone Detection in C-Based Applications</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Sonnekalb, Tim; Gruner, Bernd; Brust, Clemens-Alexander; Mäder, Patrick</t>
+          <t>N. S. Zaidi; A. F. Mubarak-Ali; A. S. Fakhrudin; R. N. Romli</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8362,30 +8366,30 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>10.1145/3551349.3561165</t>
+          <t>10.1109/ICSECS58457.2023.10256395</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>978-1-4503-9475-8</t>
+          <t>979-8-3503-1093-1</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3551349.3561165</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10256395</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Goner: Building Tree-Based N-Gram-Like Model for Semantic Code Clone Detection</t>
+          <t>Fine-grained code clone detection with block-based splitting of abstract syntax tree</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Y. Wu; S. Feng; W. Suo; D. Zou; H. Jin</t>
+          <t>Hu, Tiancheng; Xu, Zijing; Fang, Yilin; Wu, Yueming; Yuan, Bin; Zou, Deqing; Jin, Hai</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8395,30 +8399,30 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>10.1109/TR.2023.3312294</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>1558-1721</t>
-        </is>
-      </c>
+          <t>10.1145/3597926.3598040</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>9798400702211</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10252161</t>
+          <t>https://doi.org/10.1145/3597926.3598040</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Graph-of-Code: Semantic Clone Detection Using Graph Fingerprints</t>
+          <t>Generalizability of code clone detection on CodeBERT</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>E. A. Alhazami; A. M. Sheneamer</t>
+          <t>Sonnekalb, Tim; Gruner, Bernd; Brust, Clemens-Alexander; Mäder, Patrick</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8428,30 +8432,30 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>10.1109/TSE.2023.3276780</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>1939-3520</t>
-        </is>
-      </c>
+          <t>10.1145/3551349.3561165</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>978-1-4503-9475-8</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10125077</t>
+          <t>https://doi.org/10.1145/3551349.3561165</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Improving Cross-Language Code Clone Detection via Code Representation Learning and Graph Neural Networks</t>
+          <t>Goner: Building Tree-Based N-Gram-Like Model for Semantic Code Clone Detection</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>N. Mehrotra; A. Sharma; A. Jindal; R. Purandare</t>
+          <t>Y. Wu; S. Feng; W. Suo; D. Zou; H. Jin</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8461,30 +8465,30 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>10.1109/TSE.2023.3311796</t>
+          <t>10.1109/TR.2023.3312294</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1939-3520</t>
+          <t>1558-1721</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10242168</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10252161</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Improving binary code similarity transformer models by semantics-driven instruction deemphasis</t>
+          <t>Graph-of-Code: Semantic Clone Detection Using Graph Fingerprints</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Xu, Xiangzhe; Feng, Shiwei; Ye, Yapeng; Shen, Guangyu; Su, Zian; Cheng, Siyuan; Tao, Guanhong; Shi, Qingkai; Zhang, Zhuo; Zhang, Xiangyu</t>
+          <t>E. A. Alhazami; A. M. Sheneamer</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8494,30 +8498,30 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>10.1145/3597926.3598121</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>9798400702211</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr"/>
+          <t>10.1109/TSE.2023.3276780</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1939-3520</t>
+        </is>
+      </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3597926.3598121</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10125077</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Investigating the Generalizability of Deep Learning-based Clone Detectors</t>
+          <t>Improving Cross-Language Code Clone Detection via Code Representation Learning and Graph Neural Networks</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>E. Choi; N. Fuke; Y. Fujiwara; N. Yoshida; K. Inoue</t>
+          <t>N. Mehrotra; A. Sharma; A. Jindal; R. Purandare</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8527,34 +8531,30 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>10.1109/ICPC58990.2023.00032</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>979-8-3503-3750-1</t>
-        </is>
-      </c>
+          <t>10.1109/TSE.2023.3311796</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2643-7171</t>
+          <t>1939-3520</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10174051</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10242168</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Java Code Clone Detection by Exploiting Semantic and Syntax Information From Intermediate Code-Based Graph</t>
+          <t>Improving binary code similarity transformer models by semantics-driven instruction deemphasis</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>D. Yuan; S. Fang; T. Zhang; Z. Xu; X. Luo</t>
+          <t>Xu, Xiangzhe; Feng, Shiwei; Ye, Yapeng; Shen, Guangyu; Su, Zian; Cheng, Siyuan; Tao, Guanhong; Shi, Qingkai; Zhang, Zhuo; Zhang, Xiangyu</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8564,30 +8564,30 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>10.1109/TR.2022.3176922</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>1558-1721</t>
-        </is>
-      </c>
+          <t>10.1145/3597926.3598121</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>9798400702211</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9792461</t>
+          <t>https://doi.org/10.1145/3597926.3598121</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Learning graph-based code representations for source-level functional similarity detection</t>
+          <t>Investigating the Generalizability of Deep Learning-based Clone Detectors</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Liu, Jiahao; Zeng, Jun; Wang, Xiang; Liang, Zhenkai</t>
+          <t>E. Choi; N. Fuke; Y. Fujiwara; N. Yoshida; K. Inoue</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8597,30 +8597,34 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>10.1109/ICSE48619.2023.00040</t>
+          <t>10.1109/ICPC58990.2023.00032</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>978-1-66545-701-9</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr"/>
+          <t>979-8-3503-3750-1</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2643-7171</t>
+        </is>
+      </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICSE48619.2023.00040</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10174051</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Pathways to Leverage Transcompiler based Data Augmentation for Cross-Language Clone Detection</t>
+          <t>Java Code Clone Detection by Exploiting Semantic and Syntax Information From Intermediate Code-Based Graph</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>S. N. Pinku; D. Mondal; C. K. Roy</t>
+          <t>D. Yuan; S. Fang; T. Zhang; Z. Xu; X. Luo</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8630,34 +8634,30 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>10.1109/ICPC58990.2023.00031</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>979-8-3503-3750-1</t>
-        </is>
-      </c>
+          <t>10.1109/TR.2022.3176922</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2643-7171</t>
+          <t>1558-1721</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10174182</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9792461</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Research and Implementation of Code Similarity Detection Technology Based on Deep Learning</t>
+          <t>Learning graph-based code representations for source-level functional similarity detection</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>X. Wu; W. Zhao; Z. Tan; X. Zhang; W. Chen</t>
+          <t>Liu, Jiahao; Zeng, Jun; Wang, Xiang; Liang, Zhenkai</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8667,34 +8667,30 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>10.1109/CCIS59572.2023.10262836</t>
+          <t>10.1109/ICSE48619.2023.00040</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>979-8-3503-0442-8</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>2376-595X</t>
-        </is>
-      </c>
+          <t>978-1-66545-701-9</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr">
         <is>
-          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10262836</t>
+          <t>https://doi.org/10.1109/ICSE48619.2023.00040</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>The landscape of source code representation learning in AI-Driven software engineering tasks</t>
+          <t>Pathways to Leverage Transcompiler based Data Augmentation for Cross-Language Clone Detection</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Chimalakonda, Sridhar; Das, Debeshee; Mathai, Alex; Tamilselvam, Srikanth; Kumar, Atul</t>
+          <t>S. N. Pinku; D. Mondal; C. K. Roy</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8704,49 +8700,123 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>10.1109/ICSE-Companion58688.2023.00098</t>
+          <t>10.1109/ICPC58990.2023.00031</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>9798350322637</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr"/>
+          <t>979-8-3503-3750-1</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2643-7171</t>
+        </is>
+      </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ICSE-Companion58688.2023.00098</t>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10174182</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
+          <t>Research and Implementation of Code Similarity Detection Technology Based on Deep Learning</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>X. Wu; W. Zhao; Z. Tan; X. Zhang; W. Chen</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>10.1109/CCIS59572.2023.10262836</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>979-8-3503-0442-8</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2376-595X</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=10262836</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>The landscape of source code representation learning in AI-Driven software engineering tasks</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Chimalakonda, Sridhar; Das, Debeshee; Mathai, Alex; Tamilselvam, Srikanth; Kumar, Atul</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>10.1109/ICSE-Companion58688.2023.00098</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>9798350322637</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ICSE-Companion58688.2023.00098</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
           <t>TreeCen: Building tree graph for scalable semantic code clone detection</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Hu, Yutao; Zou, Deqing; Peng, Junru; Wu, Yueming; Shan, Junjie; Jin, Hai</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>10.1145/3551349.3556927</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>978-1-4503-9475-8</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr">
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
         <is>
           <t>https://doi.org/10.1145/3551349.3556927</t>
         </is>
